--- a/iQRM_Class06.xlsx
+++ b/iQRM_Class06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Library/CloudStorage/GoogleDrive-davethemovie@gmail.com/My Drive/Columbia/Classes/iQRM/ClassFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidromoff/Downloads/temp123/iQRM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50E1B28-30EB-1C47-98EA-DB2758A41E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C800B58-0853-DF44-8E5C-1680D9954FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,9 +1294,6 @@
     <t>Gathering data is difficult.</t>
   </si>
   <si>
-    <t>To at least get a little date, you reach out to 16 people and find per hour billing they have incurred for similar service.</t>
-  </si>
-  <si>
     <t>Given the data you get below, does your service provider provide a statistically signficantly different rate from the mean?</t>
   </si>
   <si>
@@ -1397,6 +1394,9 @@
   </si>
   <si>
     <t>SD('Subject Matter')</t>
+  </si>
+  <si>
+    <t>To at least get a little data, you reach out to 16 people and find per hour billing they have incurred for similar service.</t>
   </si>
 </sst>
 </file>
@@ -1846,52 +1846,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1967,7 +1967,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2303,46 +2303,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2351,7 +2351,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2418,7 +2418,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2754,52 +2754,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -2937,40 +2937,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2</c:v>
@@ -3316,52 +3316,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3484,13 +3484,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3499,52 +3499,52 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8374,9 +8374,7 @@
   </sheetPr>
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8440,7 +8438,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C41" ca="1" si="0">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>64.417139791256361</v>
+        <v>67.600574454480679</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>173</v>
@@ -8474,7 +8472,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.099387867763596</v>
+        <v>69.842735932308869</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>172</v>
@@ -8508,7 +8506,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.948191616752609</v>
+        <v>67.754507479591666</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>171</v>
@@ -8543,7 +8541,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.113534360661774</v>
+        <v>65.727445134350816</v>
       </c>
       <c r="H13" s="1">
         <v>0.15</v>
@@ -8554,11 +8552,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8571,7 +8569,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.701365030228359</v>
+        <v>67.915837313888815</v>
       </c>
       <c r="H14" s="1">
         <v>0.2</v>
@@ -8586,7 +8584,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8599,7 +8597,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.937397697944888</v>
+        <v>63.594546278225984</v>
       </c>
       <c r="H15" s="1">
         <v>0.25</v>
@@ -8610,11 +8608,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8627,7 +8625,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.670143898498083</v>
+        <v>69.290084666439213</v>
       </c>
       <c r="H16" s="1">
         <v>0.3</v>
@@ -8638,11 +8636,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L16" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8655,7 +8653,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.662293119483735</v>
+        <v>66.856647215425738</v>
       </c>
       <c r="H17" s="1">
         <v>0.35</v>
@@ -8666,11 +8664,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L17" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8683,7 +8681,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.597523517843086</v>
+        <v>65.063030399186118</v>
       </c>
       <c r="H18" s="1">
         <v>0.4</v>
@@ -8694,11 +8692,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L18" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8711,7 +8709,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.882469723820023</v>
+        <v>72.567067675020297</v>
       </c>
       <c r="H19" s="1">
         <v>0.45</v>
@@ -8722,11 +8720,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L19" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8746,7 +8744,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64.146330148258642</v>
+        <v>70.104755944335352</v>
       </c>
       <c r="H20" s="1">
         <v>0.5</v>
@@ -8757,11 +8755,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L20" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8772,7 +8770,7 @@
       </c>
       <c r="O20" s="1">
         <f ca="1">AVERAGE(Heights)</f>
-        <v>67.884190426521499</v>
+        <v>68.153033359626846</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -8781,7 +8779,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.147769705337495</v>
+        <v>65.99002638243563</v>
       </c>
       <c r="H21" s="1">
         <v>0.55000000000000004</v>
@@ -8792,22 +8790,22 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>186</v>
       </c>
       <c r="O21" s="1">
         <f ca="1">_xlfn.STDEV.S(Heights)</f>
-        <v>1.9143519435453538</v>
+        <v>1.9867058354563767</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
@@ -8816,7 +8814,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.272273914003975</v>
+        <v>65.993216489430509</v>
       </c>
       <c r="H22" s="1">
         <v>0.6</v>
@@ -8827,11 +8825,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L22" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8844,7 +8842,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.513090467582458</v>
+        <v>67.993548462688935</v>
       </c>
       <c r="H23" s="1">
         <v>0.65</v>
@@ -8855,11 +8853,11 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L23" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8878,7 +8876,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.512613356343891</v>
+        <v>67.838298257311251</v>
       </c>
       <c r="H24" s="1">
         <v>0.7</v>
@@ -8889,7 +8887,7 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -8904,7 +8902,7 @@
       </c>
       <c r="O24" s="1">
         <f ca="1">xbar-mu</f>
-        <v>-2.1158095734785007</v>
+        <v>-1.8469666403731537</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
@@ -8913,7 +8911,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.535015347668775</v>
+        <v>68.513343136350059</v>
       </c>
       <c r="H25" s="1">
         <v>0.75</v>
@@ -8928,7 +8926,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8939,7 +8937,7 @@
       </c>
       <c r="O25" s="1">
         <f ca="1">(xbar-mu)/SD</f>
-        <v>-1.1052354195436238</v>
+        <v>-0.92966286574020018</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -8948,7 +8946,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63.91981944300862</v>
+        <v>68.702197156147875</v>
       </c>
       <c r="H26" s="1">
         <v>0.8</v>
@@ -8959,11 +8957,11 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" s="23" t="str">
         <f t="shared" si="3"/>
@@ -8974,7 +8972,7 @@
       </c>
       <c r="O26" s="1">
         <f ca="1">_xlfn.T.DIST(O25,n-1,1)</f>
-        <v>0.13586818943264053</v>
+        <v>0.17740349107819925</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -8983,7 +8981,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.483717627400011</v>
+        <v>66.209810773581694</v>
       </c>
       <c r="H27" s="1">
         <v>0.85</v>
@@ -8994,7 +8992,7 @@
       </c>
       <c r="J27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -9011,7 +9009,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.411118362158248</v>
+        <v>69.785967317108401</v>
       </c>
       <c r="H28" s="1">
         <v>0.9</v>
@@ -9022,7 +9020,7 @@
       </c>
       <c r="J28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -9037,7 +9035,7 @@
       </c>
       <c r="O28" s="1">
         <f ca="1">SD/SQRT(n)</f>
-        <v>0.19143519435453538</v>
+        <v>0.19867058354563766</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
@@ -9046,7 +9044,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.489626275036542</v>
+        <v>67.702047251482341</v>
       </c>
       <c r="H29" s="1">
         <v>0.95</v>
@@ -9061,7 +9059,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="23" t="str">
         <f t="shared" si="3"/>
@@ -9072,7 +9070,7 @@
       </c>
       <c r="O29" s="1">
         <f ca="1">(xbar-mu)/SD_xbar</f>
-        <v>-11.052354195436239</v>
+        <v>-9.2966286574020014</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
@@ -9081,7 +9079,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.778608317816918</v>
+        <v>69.852533995192474</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -9107,7 +9105,7 @@
       </c>
       <c r="O30" s="1">
         <f ca="1">_xlfn.T.DIST(O29,n-1,1)</f>
-        <v>2.8116910748641367E-19</v>
+        <v>1.8720006954454993E-15</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
@@ -9116,7 +9114,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.340169393597364</v>
+        <v>69.246053995845159</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
@@ -9125,7 +9123,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.948277783166589</v>
+        <v>66.691847861505337</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -9134,7 +9132,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.66343893915068</v>
+        <v>66.961373646421265</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -9143,7 +9141,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.358038204926586</v>
+        <v>69.713687283776025</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -9152,7 +9150,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.983618103711905</v>
+        <v>69.956467841431575</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -9161,7 +9159,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.502889029183123</v>
+        <v>70.555124439984624</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -9170,7 +9168,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71.938826889771676</v>
+        <v>66.354908745730626</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
@@ -9179,7 +9177,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71.744612399170322</v>
+        <v>70.306539218181427</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -9188,7 +9186,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63.527350076054809</v>
+        <v>69.367876334969793</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -9197,7 +9195,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.291424592439711</v>
+        <v>70.175623008213492</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
@@ -9206,7 +9204,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72.802107399376268</v>
+        <v>67.199750633658496</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -9215,7 +9213,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ref="C42:C73" ca="1" si="5">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>67.199710799765299</v>
+        <v>67.084132559412581</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
@@ -9224,7 +9222,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>68.484742128169046</v>
+        <v>70.049039379867182</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
@@ -9233,7 +9231,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>64.116332768911249</v>
+        <v>70.509584943737821</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
@@ -9242,7 +9240,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>65.102811882544685</v>
+        <v>66.383358618318439</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
@@ -9251,7 +9249,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>68.176906696481652</v>
+        <v>67.378813771078896</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
@@ -9260,7 +9258,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.698382498308177</v>
+        <v>69.403740555091275</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
@@ -9269,7 +9267,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.392929587150647</v>
+        <v>69.39522466709127</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
@@ -9278,7 +9276,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.596259670583166</v>
+        <v>68.195432400105815</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -9287,7 +9285,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.341433548340845</v>
+        <v>68.816287850996247</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
@@ -9296,7 +9294,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.697295677421153</v>
+        <v>68.870546685964101</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
@@ -9305,7 +9303,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>65.459136407626275</v>
+        <v>67.067033019574737</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
@@ -9314,7 +9312,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.968243488840315</v>
+        <v>68.511910517888495</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
@@ -9323,7 +9321,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.186741336663047</v>
+        <v>63.625500845586998</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
@@ -9332,7 +9330,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.956168153144034</v>
+        <v>67.306423650625206</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
@@ -9341,7 +9339,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.703623407968152</v>
+        <v>69.039366125970005</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
@@ -9350,7 +9348,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.270708038567236</v>
+        <v>64.651104856897717</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
@@ -9359,7 +9357,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.057804515654865</v>
+        <v>67.093710341535029</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
@@ -9368,7 +9366,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>65.204790780234461</v>
+        <v>68.657733448616909</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
@@ -9377,7 +9375,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.024015441776882</v>
+        <v>69.321132221421323</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
@@ -9386,7 +9384,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.565113401322577</v>
+        <v>68.396851555588512</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
@@ -9395,7 +9393,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.561632606322348</v>
+        <v>70.210910037640048</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
@@ -9404,7 +9402,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>70.880618624164228</v>
+        <v>68.448255619662433</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
@@ -9413,7 +9411,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.992774752112425</v>
+        <v>68.007995754851351</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
@@ -9422,7 +9420,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.77358262452131</v>
+        <v>66.280151649564516</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
@@ -9431,7 +9429,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.071761410760431</v>
+        <v>65.543753086112801</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
@@ -9440,7 +9438,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>70.176741274688197</v>
+        <v>67.423854068725291</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
@@ -9449,7 +9447,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.15101939529076</v>
+        <v>69.692753901637857</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
@@ -9458,7 +9456,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>70.041353529812525</v>
+        <v>71.928423537207891</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
@@ -9467,7 +9465,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>70.051055522591696</v>
+        <v>69.92528354834262</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
@@ -9476,7 +9474,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.691676937523852</v>
+        <v>69.689660185202328</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
@@ -9485,7 +9483,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.003434965329632</v>
+        <v>66.075103898886923</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
@@ -9494,7 +9492,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>65.823055631441065</v>
+        <v>66.844934649869899</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
@@ -9503,7 +9501,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" ref="C74:C109" ca="1" si="6">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>72.522150105490852</v>
+        <v>66.163789193897912</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
@@ -9512,7 +9510,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.64668528169527</v>
+        <v>66.781905579081098</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
@@ -9521,7 +9519,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.750974304700762</v>
+        <v>67.032600760474779</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
@@ -9530,7 +9528,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.847177515553568</v>
+        <v>69.325406552954618</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
@@ -9539,7 +9537,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.981400327964408</v>
+        <v>67.887435669492348</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
@@ -9548,7 +9546,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.200801413390963</v>
+        <v>63.837024866588003</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
@@ -9557,7 +9555,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.571579985961691</v>
+        <v>71.816848506807617</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
@@ -9566,7 +9564,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.224281171217228</v>
+        <v>67.554782967537747</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
@@ -9575,7 +9573,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.05823210012862</v>
+        <v>68.675250372536041</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
@@ -9584,7 +9582,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.820299748624976</v>
+        <v>67.135888401674535</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
@@ -9593,7 +9591,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.334249541484553</v>
+        <v>70.054003807493942</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
@@ -9602,7 +9600,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.600169965310911</v>
+        <v>68.324406279824075</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
@@ -9611,7 +9609,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.085156034800619</v>
+        <v>69.684089198933293</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
@@ -9620,7 +9618,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.109586837813751</v>
+        <v>67.916838522296842</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
@@ -9629,7 +9627,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>71.060472323093734</v>
+        <v>68.125816573973609</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
@@ -9638,7 +9636,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.804457897039896</v>
+        <v>69.429210522887601</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
@@ -9647,7 +9645,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.257765845635717</v>
+        <v>67.131989879894277</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
@@ -9656,7 +9654,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.960044666832104</v>
+        <v>64.830386120284743</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
@@ -9665,7 +9663,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65.854704953034258</v>
+        <v>66.343711962699984</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
@@ -9674,7 +9672,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.892763915488146</v>
+        <v>70.486215029033673</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
@@ -9683,7 +9681,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70.752881593080744</v>
+        <v>67.313204609691539</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
@@ -9692,7 +9690,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.511905184700524</v>
+        <v>64.426186343897513</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
@@ -9701,7 +9699,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.738099136104793</v>
+        <v>67.719388705014921</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
@@ -9710,7 +9708,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.143315302319024</v>
+        <v>69.638691958966831</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
@@ -9719,7 +9717,7 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65.560944443456847</v>
+        <v>68.703619541891953</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
@@ -9728,7 +9726,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.680474367740686</v>
+        <v>66.402172135399013</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
@@ -9737,7 +9735,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.28675364478238</v>
+        <v>67.360246273996452</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
@@ -9746,7 +9744,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.414066519464143</v>
+        <v>67.971168818127325</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
@@ -9755,7 +9753,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.021095466393291</v>
+        <v>65.798431287079396</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
@@ -9764,7 +9762,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65.655620071713926</v>
+        <v>70.946268857809983</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
@@ -9773,7 +9771,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.558575262412774</v>
+        <v>74.700136631782655</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
@@ -9782,7 +9780,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.004492086321662</v>
+        <v>71.701332225990313</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
@@ -9791,7 +9789,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.692042077971252</v>
+        <v>70.637611416904676</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
@@ -9800,7 +9798,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.69373914708008</v>
+        <v>66.237044192966238</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
@@ -9809,7 +9807,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65.614164533384539</v>
+        <v>69.502687235100012</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
@@ -9818,7 +9816,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.745879976510111</v>
+        <v>66.452062281926757</v>
       </c>
     </row>
   </sheetData>
@@ -9837,9 +9835,7 @@
   </sheetPr>
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9913,11 +9909,11 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C41" ca="1" si="0">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>71.12273198194201</v>
+        <v>71.42977138265887</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" ref="D10:D41" ca="1" si="1">_xlfn.NORM.INV(RAND(),70,2)</f>
-        <v>67.639715018804594</v>
+        <v>70.129141807575621</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>173</v>
@@ -9956,11 +9952,11 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.951709045367636</v>
+        <v>69.461302992418538</v>
       </c>
       <c r="D11" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.158377870847616</v>
+        <v>69.234677729824554</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>172</v>
@@ -9999,11 +9995,11 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.404506289920533</v>
+        <v>66.779183402305677</v>
       </c>
       <c r="D12" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.384188636148366</v>
+        <v>71.169760948689969</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>171</v>
@@ -10043,11 +10039,11 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.548786993716774</v>
+        <v>63.77866743440859</v>
       </c>
       <c r="D13" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.150546886856901</v>
+        <v>70.303767377646707</v>
       </c>
       <c r="I13" s="1">
         <v>0.15</v>
@@ -10058,11 +10054,11 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -10080,11 +10076,11 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.001659556858996</v>
+        <v>65.805986148743088</v>
       </c>
       <c r="D14" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.67819160798031</v>
+        <v>66.125866634537743</v>
       </c>
       <c r="I14" s="1">
         <v>0.2</v>
@@ -10095,7 +10091,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -10117,11 +10113,11 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72.101018641681151</v>
+        <v>66.97036021243369</v>
       </c>
       <c r="D15" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.168817730972009</v>
+        <v>68.98676424805052</v>
       </c>
       <c r="I15" s="1">
         <v>0.25</v>
@@ -10132,11 +10128,11 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -10154,11 +10150,11 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.137343101430531</v>
+        <v>65.32678926228067</v>
       </c>
       <c r="D16" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.224526764499345</v>
+        <v>71.182438554827797</v>
       </c>
       <c r="I16" s="1">
         <v>0.3</v>
@@ -10169,19 +10165,19 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="23"/>
     </row>
@@ -10191,11 +10187,11 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.184780896647695</v>
+        <v>67.22298845042198</v>
       </c>
       <c r="D17" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.102708646970058</v>
+        <v>68.908377362058133</v>
       </c>
       <c r="I17" s="1">
         <v>0.35</v>
@@ -10206,15 +10202,15 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -10228,11 +10224,11 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.380596805805396</v>
+        <v>71.52845653445857</v>
       </c>
       <c r="D18" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.146855764520595</v>
+        <v>70.548391913018051</v>
       </c>
       <c r="I18" s="1">
         <v>0.4</v>
@@ -10243,19 +10239,19 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18" s="23"/>
     </row>
@@ -10265,11 +10261,11 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.436527322785167</v>
+        <v>66.959664228767238</v>
       </c>
       <c r="D19" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.085887372869365</v>
+        <v>72.728100846702077</v>
       </c>
       <c r="I19" s="1">
         <v>0.45</v>
@@ -10280,11 +10276,11 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -10292,7 +10288,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19" s="23"/>
       <c r="Q19" s="1" t="s">
@@ -10309,11 +10305,11 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.758347839726625</v>
+        <v>66.055343663235419</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>68.159742817986512</v>
+        <v>70.995052675552074</v>
       </c>
       <c r="I20" s="1">
         <v>0.5</v>
@@ -10324,19 +10320,19 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O20" s="23"/>
       <c r="Q20" s="1" t="s">
@@ -10353,11 +10349,11 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.160825370761756</v>
+        <v>65.693884719598231</v>
       </c>
       <c r="D21" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.099246232534469</v>
+        <v>69.957873427497987</v>
       </c>
       <c r="I21" s="1">
         <v>0.55000000000000004</v>
@@ -10368,19 +10364,19 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O21" s="23"/>
       <c r="Q21" s="1" t="s">
@@ -10388,7 +10384,7 @@
       </c>
       <c r="R21" s="1">
         <f ca="1">AVERAGE(Heights1)</f>
-        <v>68.166597135894037</v>
+        <v>68.055934302484118</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
@@ -10397,11 +10393,11 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.269271750324336</v>
+        <v>67.700571087226876</v>
       </c>
       <c r="D22" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.494590183659085</v>
+        <v>71.698205873406337</v>
       </c>
       <c r="I22" s="1">
         <v>0.6</v>
@@ -10412,19 +10408,19 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O22" s="23"/>
       <c r="Q22" s="1" t="s">
@@ -10432,7 +10428,7 @@
       </c>
       <c r="R22" s="1">
         <f ca="1">AVERAGE(Heights2)</f>
-        <v>70.240015239039835</v>
+        <v>70.088192905358568</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -10441,11 +10437,11 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.817144400194834</v>
+        <v>69.393435424570455</v>
       </c>
       <c r="D23" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>74.564022657555839</v>
+        <v>69.965172579523838</v>
       </c>
       <c r="I23" s="1">
         <v>0.65</v>
@@ -10456,19 +10452,19 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O23" s="23"/>
     </row>
@@ -10478,11 +10474,11 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>74.010553629405919</v>
+        <v>66.690581868996034</v>
       </c>
       <c r="D24" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.255545570926657</v>
+        <v>68.147736542115595</v>
       </c>
       <c r="I24" s="1">
         <v>0.7</v>
@@ -10493,19 +10489,19 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O24" s="23"/>
       <c r="Q24" s="1" t="s">
@@ -10513,7 +10509,7 @@
       </c>
       <c r="R24" s="1">
         <f ca="1">xbar1-xbar2</f>
-        <v>-2.0734181031457979</v>
+        <v>-2.0322586028744496</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
@@ -10522,11 +10518,11 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.246200976449458</v>
+        <v>69.964034460343981</v>
       </c>
       <c r="D25" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.463721716331122</v>
+        <v>71.75928164664316</v>
       </c>
       <c r="I25" s="1">
         <v>0.75</v>
@@ -10537,19 +10533,19 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O25" s="23"/>
       <c r="Q25" s="1" t="s">
@@ -10557,7 +10553,7 @@
       </c>
       <c r="R25" s="1">
         <f ca="1">SQRT(_xlfn.VAR.S(Heights1)/n1_+_xlfn.VAR.S(Heights2)/n2_)</f>
-        <v>0.25027355047979855</v>
+        <v>0.27908186626257259</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -10566,11 +10562,11 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.25641989617408</v>
+        <v>68.142892910513652</v>
       </c>
       <c r="D26" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>72.926631293793179</v>
+        <v>68.808569698055351</v>
       </c>
       <c r="I26" s="1">
         <v>0.8</v>
@@ -10581,19 +10577,19 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O26" s="23"/>
       <c r="Q26" s="1" t="s">
@@ -10601,7 +10597,7 @@
       </c>
       <c r="R26" s="1">
         <f ca="1">R24/R25</f>
-        <v>-8.2846073792890031</v>
+        <v>-7.2819442914374477</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
@@ -10610,11 +10606,11 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.116490641357345</v>
+        <v>68.589507587323496</v>
       </c>
       <c r="D27" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>74.173194149500787</v>
+        <v>72.583315016425772</v>
       </c>
       <c r="I27" s="1">
         <v>0.85</v>
@@ -10625,11 +10621,11 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -10637,7 +10633,7 @@
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="23"/>
       <c r="Q27" s="1" t="s">
@@ -10645,7 +10641,7 @@
       </c>
       <c r="R27" s="1">
         <f ca="1">_xlfn.T.DIST(R26,n-1,1)</f>
-        <v>2.9365133563450025E-13</v>
+        <v>3.9987238476119135E-11</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
@@ -10654,11 +10650,11 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64.907782443040745</v>
+        <v>65.88407316412578</v>
       </c>
       <c r="D28" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>73.705048819817065</v>
+        <v>72.186884545563089</v>
       </c>
       <c r="I28" s="1">
         <v>0.9</v>
@@ -10673,7 +10669,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -10691,11 +10687,11 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.754398848938223</v>
+        <v>67.952661216862793</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>72.704063082797518</v>
+        <v>70.154551231463429</v>
       </c>
       <c r="I29" s="1">
         <v>0.95</v>
@@ -10728,11 +10724,11 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.219658932496131</v>
+        <v>66.037609488158651</v>
       </c>
       <c r="D30" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.689603301823965</v>
+        <v>67.970708295523266</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -10765,11 +10761,11 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.466779561283374</v>
+        <v>69.102860317700205</v>
       </c>
       <c r="D31" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>72.210075570704049</v>
+        <v>71.077454379925399</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
@@ -10778,11 +10774,11 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.712173340725187</v>
+        <v>65.144087577451344</v>
       </c>
       <c r="D32" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.724440187938455</v>
+        <v>69.942117054281169</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -10791,11 +10787,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64.542688751864958</v>
+        <v>69.409701783516809</v>
       </c>
       <c r="D33" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>68.924214363183623</v>
+        <v>73.831229855606935</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -10804,11 +10800,11 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.07774982885762</v>
+        <v>69.014298660740806</v>
       </c>
       <c r="D34" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.27757348534783</v>
+        <v>71.212191890928992</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -10817,11 +10813,11 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72.486875758786127</v>
+        <v>67.042763023788069</v>
       </c>
       <c r="D35" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>73.236401693866227</v>
+        <v>70.488238310771109</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -10830,11 +10826,11 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.64635497589704</v>
+        <v>64.337339233005196</v>
       </c>
       <c r="D36" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.170547695687588</v>
+        <v>70.523594555180679</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
@@ -10843,11 +10839,11 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.921172333146217</v>
+        <v>67.421130717441983</v>
       </c>
       <c r="D37" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>68.844721801039583</v>
+        <v>70.571639756484061</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -10856,11 +10852,11 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.008580967069392</v>
+        <v>66.526802983321474</v>
       </c>
       <c r="D38" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.952660530492409</v>
+        <v>70.033681106229238</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
@@ -10869,11 +10865,11 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.443706974158786</v>
+        <v>69.187509147466983</v>
       </c>
       <c r="D39" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.102366063704466</v>
+        <v>70.456593236678017</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -10882,11 +10878,11 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.056608702070406</v>
+        <v>68.715811817480912</v>
       </c>
       <c r="D40" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.467609328312463</v>
+        <v>72.093330800933671</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -10895,11 +10891,11 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.065896750013053</v>
+        <v>68.119159272641511</v>
       </c>
       <c r="D41" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.141485247302896</v>
+        <v>70.99544655533856</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -10908,11 +10904,11 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ref="C42:C73" ca="1" si="7">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>66.644282574982412</v>
+        <v>66.401430131728787</v>
       </c>
       <c r="D42" s="24">
         <f t="shared" ref="D42:D73" ca="1" si="8">_xlfn.NORM.INV(RAND(),70,2)</f>
-        <v>70.44093641864049</v>
+        <v>67.511661439619203</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -10921,11 +10917,11 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69.74153575649909</v>
+        <v>68.152959320972172</v>
       </c>
       <c r="D43" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>71.002190263345298</v>
+        <v>70.155621336381628</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -10934,11 +10930,11 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.638553643711546</v>
+        <v>70.363107600553974</v>
       </c>
       <c r="D44" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.715869242035808</v>
+        <v>70.083141333784781</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -10947,11 +10943,11 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.847734944690629</v>
+        <v>68.041700448880732</v>
       </c>
       <c r="D45" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.202428914671401</v>
+        <v>71.382696902163516</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -10960,11 +10956,11 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66.914148189434272</v>
+        <v>69.568825813925983</v>
       </c>
       <c r="D46" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>66.649524100051551</v>
+        <v>69.246298090497973</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -10973,11 +10969,11 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.228538461468816</v>
+        <v>67.045466374128523</v>
       </c>
       <c r="D47" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>72.721768550129241</v>
+        <v>71.745729106445538</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
@@ -10986,11 +10982,11 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69.780146285775274</v>
+        <v>73.399822597623668</v>
       </c>
       <c r="D48" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>72.916999982733074</v>
+        <v>70.493317544387111</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -10999,11 +10995,11 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.59314218232393</v>
+        <v>66.347063457400409</v>
       </c>
       <c r="D49" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.720003277004849</v>
+        <v>71.263514052126524</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -11012,11 +11008,11 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>64.421748623454548</v>
+        <v>69.647896957291323</v>
       </c>
       <c r="D50" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>71.236134377729272</v>
+        <v>70.731917854375979</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -11025,11 +11021,11 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.94332708910845</v>
+        <v>66.691193998495649</v>
       </c>
       <c r="D51" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.781975626560822</v>
+        <v>72.209313546008005</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -11038,11 +11034,11 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66.381666570065974</v>
+        <v>69.380559804643255</v>
       </c>
       <c r="D52" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>69.605394826657346</v>
+        <v>71.745455424771265</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -11051,11 +11047,11 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>71.998996097164607</v>
+        <v>69.867244283368322</v>
       </c>
       <c r="D53" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>71.768483074945692</v>
+        <v>71.465279938589504</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -11064,11 +11060,11 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.063633872166307</v>
+        <v>66.070758124944476</v>
       </c>
       <c r="D54" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>69.591914530999858</v>
+        <v>74.017608116818352</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -11077,11 +11073,11 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.007132885167778</v>
+        <v>69.324879082382139</v>
       </c>
       <c r="D55" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.98122070382685</v>
+        <v>69.874529580259463</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -11090,11 +11086,11 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.849110580511194</v>
+        <v>67.98102036029141</v>
       </c>
       <c r="D56" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.470175967888395</v>
+        <v>68.987569089840846</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -11103,11 +11099,11 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69.282693255152367</v>
+        <v>66.406560851887292</v>
       </c>
       <c r="D57" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>69.490181704474978</v>
+        <v>71.87606184578533</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -11116,11 +11112,11 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.311599118323855</v>
+        <v>67.318483794967975</v>
       </c>
       <c r="D58" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>67.703704402045801</v>
+        <v>71.85120342889546</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -11129,11 +11125,11 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66.177253281855826</v>
+        <v>67.697793127091558</v>
       </c>
       <c r="D59" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>71.306993992237011</v>
+        <v>68.901189773275803</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -11142,11 +11138,11 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.023666694628844</v>
+        <v>68.20833168644991</v>
       </c>
       <c r="D60" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>69.402758484278394</v>
+        <v>70.946362739234999</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -11155,11 +11151,11 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66.749584954758745</v>
+        <v>70.021937035109374</v>
       </c>
       <c r="D61" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>72.871622912150812</v>
+        <v>69.131196379917569</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -11168,11 +11164,11 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>65.96234133131199</v>
+        <v>65.717597878212075</v>
       </c>
       <c r="D62" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.15875585755154</v>
+        <v>70.936398076364199</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -11181,11 +11177,11 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>65.511777388295783</v>
+        <v>66.465555131013247</v>
       </c>
       <c r="D63" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>71.220584627481614</v>
+        <v>69.332441970594218</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -11194,11 +11190,11 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.739342653188899</v>
+        <v>68.900736347697489</v>
       </c>
       <c r="D64" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>71.727887536555087</v>
+        <v>66.361442278991163</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -11207,11 +11203,11 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.128585631857263</v>
+        <v>63.968981993903732</v>
       </c>
       <c r="D65" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.251116345605709</v>
+        <v>69.947829284236263</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -11220,11 +11216,11 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69.226971943344097</v>
+        <v>65.882818879189358</v>
       </c>
       <c r="D66" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.045923490456104</v>
+        <v>69.417042896641533</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -11233,11 +11229,11 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69.350246090806337</v>
+        <v>67.861760507823405</v>
       </c>
       <c r="D67" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.684694017516932</v>
+        <v>71.21242246889183</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -11246,11 +11242,11 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.093601897197928</v>
+        <v>66.842411432626463</v>
       </c>
       <c r="D68" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.359736896695736</v>
+        <v>70.053849864079439</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -11259,11 +11255,11 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.287957129206632</v>
+        <v>69.978173275387874</v>
       </c>
       <c r="D69" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>67.061441228211137</v>
+        <v>71.477729473895181</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -11272,11 +11268,11 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.367643473481223</v>
+        <v>65.767969351966684</v>
       </c>
       <c r="D70" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.881073436599564</v>
+        <v>69.06281911275866</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -11285,11 +11281,11 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>65.779516135579939</v>
+        <v>68.390795508432376</v>
       </c>
       <c r="D71" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.914796190649881</v>
+        <v>70.397242588712444</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
@@ -11298,11 +11294,11 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66.319060707747497</v>
+        <v>64.514929234007269</v>
       </c>
       <c r="D72" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.703048826536715</v>
+        <v>69.909563226923112</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -11311,11 +11307,11 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>65.980244932940892</v>
+        <v>69.915821606087974</v>
       </c>
       <c r="D73" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.834562722662525</v>
+        <v>68.740663216311873</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -11324,11 +11320,11 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" ref="C74:C109" ca="1" si="9">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>66.477429348295146</v>
+        <v>68.601137198712465</v>
       </c>
       <c r="D74" s="24">
         <f t="shared" ref="D74:D109" ca="1" si="10">_xlfn.NORM.INV(RAND(),70,2)</f>
-        <v>73.851358712143082</v>
+        <v>68.636044770913571</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -11337,11 +11333,11 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.296687486601556</v>
+        <v>66.094127929634311</v>
       </c>
       <c r="D75" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>68.024341311834874</v>
+        <v>66.215283727775784</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -11350,11 +11346,11 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.466142334350536</v>
+        <v>65.924001599037183</v>
       </c>
       <c r="D76" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.740385424030251</v>
+        <v>67.221954574043906</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
@@ -11363,11 +11359,11 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.419958384155379</v>
+        <v>70.960485004152687</v>
       </c>
       <c r="D77" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.512480830036182</v>
+        <v>70.439198899904113</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -11376,11 +11372,11 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.230547954488642</v>
+        <v>70.178195162666995</v>
       </c>
       <c r="D78" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.195870505444688</v>
+        <v>67.765679269227221</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
@@ -11389,11 +11385,11 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>65.119974757939488</v>
+        <v>68.986386751163252</v>
       </c>
       <c r="D79" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>67.485999076656938</v>
+        <v>69.478513364495512</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -11402,11 +11398,11 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.150959259060542</v>
+        <v>66.470241469564897</v>
       </c>
       <c r="D80" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.331287821282686</v>
+        <v>67.404954896425863</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -11415,11 +11411,11 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.189495751278258</v>
+        <v>68.957903892483316</v>
       </c>
       <c r="D81" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.042160136190972</v>
+        <v>70.700881026845991</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
@@ -11428,11 +11424,11 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.39093907474313</v>
+        <v>73.742946071811673</v>
       </c>
       <c r="D82" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>72.669552288403338</v>
+        <v>72.034952428592391</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
@@ -11441,11 +11437,11 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>66.294638549349912</v>
+        <v>66.503772883238213</v>
       </c>
       <c r="D83" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.134920810543875</v>
+        <v>72.467166403574311</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
@@ -11454,11 +11450,11 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.751010751265056</v>
+        <v>72.564705456896192</v>
       </c>
       <c r="D84" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>72.338240757777768</v>
+        <v>70.472398229946307</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
@@ -11467,11 +11463,11 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.296253477718949</v>
+        <v>67.560611707812399</v>
       </c>
       <c r="D85" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>66.984198699465153</v>
+        <v>71.440850713079641</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -11480,11 +11476,11 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.656516153584477</v>
+        <v>63.476549705512852</v>
       </c>
       <c r="D86" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.683573245457723</v>
+        <v>67.708451518205095</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
@@ -11493,11 +11489,11 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.46377861084737</v>
+        <v>66.163374579227138</v>
       </c>
       <c r="D87" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.093559418844464</v>
+        <v>70.473807768933881</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
@@ -11506,11 +11502,11 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.757555507400681</v>
+        <v>67.742644565751206</v>
       </c>
       <c r="D88" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>67.760368151335271</v>
+        <v>64.829751213306778</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
@@ -11519,11 +11515,11 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.985815113820152</v>
+        <v>67.423169169904256</v>
       </c>
       <c r="D89" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.2831946405786</v>
+        <v>69.226429808830204</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
@@ -11532,11 +11528,11 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.955149493667292</v>
+        <v>72.586878530978183</v>
       </c>
       <c r="D90" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.271073978752057</v>
+        <v>70.6084564612527</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
@@ -11545,11 +11541,11 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.378826358273642</v>
+        <v>69.740085405602684</v>
       </c>
       <c r="D91" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.945731805272828</v>
+        <v>74.55992981327374</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
@@ -11558,11 +11554,11 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.288605247175909</v>
+        <v>69.423115475952855</v>
       </c>
       <c r="D92" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>67.71186588439646</v>
+        <v>69.715680631505123</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
@@ -11571,11 +11567,11 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.841205901843466</v>
+        <v>69.977244314614111</v>
       </c>
       <c r="D93" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.155674570950865</v>
+        <v>70.666518205303021</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
@@ -11584,11 +11580,11 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.469408993275081</v>
+        <v>70.182446963974201</v>
       </c>
       <c r="D94" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>65.336784183020058</v>
+        <v>68.712884544394882</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
@@ -11597,11 +11593,11 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.607981191311808</v>
+        <v>65.021881561431343</v>
       </c>
       <c r="D95" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.359137782377275</v>
+        <v>71.471797155120456</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
@@ -11610,11 +11606,11 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.422303689929606</v>
+        <v>69.173718998956957</v>
       </c>
       <c r="D96" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>67.453809928478009</v>
+        <v>71.271758294978596</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
@@ -11623,11 +11619,11 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.381990227510698</v>
+        <v>67.694280118206791</v>
       </c>
       <c r="D97" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>68.883035608869776</v>
+        <v>68.920006595012325</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
@@ -11636,11 +11632,11 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.490724950995343</v>
+        <v>65.853548842615282</v>
       </c>
       <c r="D98" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.805337704701273</v>
+        <v>68.250336589586155</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
@@ -11649,11 +11645,11 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.392496496629647</v>
+        <v>70.261475534850405</v>
       </c>
       <c r="D99" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>66.801613889967342</v>
+        <v>67.631553072698864</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
@@ -11662,11 +11658,11 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.051571653964714</v>
+        <v>67.396524403210719</v>
       </c>
       <c r="D100" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>68.991257105649495</v>
+        <v>73.868956450321022</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
@@ -11675,11 +11671,11 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.241775851667711</v>
+        <v>68.592581334604844</v>
       </c>
       <c r="D101" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.394051754236543</v>
+        <v>70.882092105286318</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
@@ -11688,11 +11684,11 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>66.860607420562118</v>
+        <v>72.027250247630718</v>
       </c>
       <c r="D102" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>72.329309096151945</v>
+        <v>65.551126143523916</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
@@ -11701,11 +11697,11 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>65.96910820257645</v>
+        <v>67.71709758784452</v>
       </c>
       <c r="D103" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.702148686661744</v>
+        <v>71.895727307044751</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
@@ -11714,11 +11710,11 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>66.353629056816445</v>
+        <v>68.913841156331458</v>
       </c>
       <c r="D104" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.701858948564166</v>
+        <v>68.519943795496502</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
@@ -11727,11 +11723,11 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.243222397777643</v>
+        <v>70.248752011687628</v>
       </c>
       <c r="D105" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>67.591418363810305</v>
+        <v>71.880901406696026</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
@@ -11740,11 +11736,11 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>71.028255625504229</v>
+        <v>66.967021251463535</v>
       </c>
       <c r="D106" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.098529625045671</v>
+        <v>68.524405210354175</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
@@ -11753,11 +11749,11 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>66.523866344028775</v>
+        <v>70.56826012302308</v>
       </c>
       <c r="D107" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.447145740241311</v>
+        <v>68.422177312353483</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
@@ -11766,11 +11762,11 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.287200352487659</v>
+        <v>69.618246786056133</v>
       </c>
       <c r="D108" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.624159798176493</v>
+        <v>70.008996188866305</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
@@ -11779,11 +11775,11 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.362953933403361</v>
+        <v>68.745110278917366</v>
       </c>
       <c r="D109" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.814862994929314</v>
+        <v>65.700456200049089</v>
       </c>
     </row>
   </sheetData>
@@ -11855,12 +11851,12 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
@@ -11884,7 +11880,7 @@
       </c>
       <c r="E13" s="24">
         <f ca="1">_xlfn.VAR.S(Heights1)</f>
-        <v>4.0974898254939935</v>
+        <v>3.1363489472728525</v>
       </c>
       <c r="N13" s="27"/>
     </row>
@@ -11895,7 +11891,7 @@
       </c>
       <c r="E14" s="24">
         <f ca="1">_xlfn.VAR.S(Heights2)</f>
-        <v>14.390385092163498</v>
+        <v>16.633623771778147</v>
       </c>
       <c r="N14" s="27"/>
     </row>
@@ -11928,7 +11924,7 @@
       </c>
       <c r="E17" s="24">
         <f ca="1">SampleVar1/SampleVar2</f>
-        <v>0.28473802467769566</v>
+        <v>0.18855476054437501</v>
       </c>
       <c r="N17" s="27"/>
     </row>
@@ -11939,7 +11935,7 @@
       </c>
       <c r="E18" s="30">
         <f ca="1">_xlfn.F.DIST(Ratio,n1_-1,n2_-1,1)</f>
-        <v>7.4407671078068779E-10</v>
+        <v>1.8714811976439714E-15</v>
       </c>
       <c r="F18" s="29" t="str">
         <f ca="1">IF(Pvalue&lt;5%,"Variances are significantly different","Variances are not significantly different")</f>
@@ -11994,11 +11990,11 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:C54" ca="1" si="0">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>68.459339317172279</v>
+        <v>68.622198723695149</v>
       </c>
       <c r="D23" s="24">
         <f t="shared" ref="D23:D54" ca="1" si="1">_xlfn.NORM.INV(RAND(),70,4)</f>
-        <v>70.616601744311239</v>
+        <v>64.007230840238762</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>173</v>
@@ -12023,11 +12019,11 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" ref="M23:M43" ca="1" si="4">COUNTIFS(Heights2,"&lt;=" &amp; J23)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
         <f ca="1">M23</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="23"/>
     </row>
@@ -12037,11 +12033,11 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.022733163528528</v>
+        <v>65.500526853574129</v>
       </c>
       <c r="D24" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.110137716350494</v>
+        <v>68.669738828289127</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>172</v>
@@ -12066,11 +12062,11 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" ref="N24:N43" ca="1" si="6">M24-M23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="23"/>
     </row>
@@ -12080,11 +12076,11 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.923838291440177</v>
+        <v>69.801020114726256</v>
       </c>
       <c r="D25" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>68.620012044534874</v>
+        <v>67.006478836118916</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>171</v>
@@ -12102,19 +12098,19 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O25" s="23"/>
     </row>
@@ -12124,11 +12120,11 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.313296164078722</v>
+        <v>67.497654821064543</v>
       </c>
       <c r="D26" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>66.975760135681469</v>
+        <v>72.093317696199946</v>
       </c>
       <c r="I26" s="1">
         <v>0.15</v>
@@ -12143,11 +12139,11 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -12161,11 +12157,11 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.313932610507294</v>
+        <v>64.160344720061005</v>
       </c>
       <c r="D27" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>68.852570680088675</v>
+        <v>70.965030780908435</v>
       </c>
       <c r="I27" s="1">
         <v>0.2</v>
@@ -12176,15 +12172,15 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -12198,11 +12194,11 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.455092549848743</v>
+        <v>68.460658154232434</v>
       </c>
       <c r="D28" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>68.687989497289919</v>
+        <v>73.261289242232181</v>
       </c>
       <c r="I28" s="1">
         <v>0.25</v>
@@ -12217,15 +12213,15 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O28" s="23"/>
     </row>
@@ -12235,11 +12231,11 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71.302550505496612</v>
+        <v>65.522390468864486</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>67.936182541988472</v>
+        <v>70.926638173148717</v>
       </c>
       <c r="I29" s="1">
         <v>0.3</v>
@@ -12250,19 +12246,19 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="23"/>
     </row>
@@ -12272,11 +12268,11 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.053964101938064</v>
+        <v>68.423255959646156</v>
       </c>
       <c r="D30" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>64.629797623641423</v>
+        <v>69.41221454199281</v>
       </c>
       <c r="I30" s="1">
         <v>0.35</v>
@@ -12287,19 +12283,19 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O30" s="23"/>
     </row>
@@ -12309,11 +12305,11 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71.573210484189318</v>
+        <v>67.495796849433589</v>
       </c>
       <c r="D31" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>66.743876148975687</v>
+        <v>69.383300029042502</v>
       </c>
       <c r="I31" s="1">
         <v>0.4</v>
@@ -12324,11 +12320,11 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -12336,7 +12332,7 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O31" s="23"/>
     </row>
@@ -12346,11 +12342,11 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.150560255675913</v>
+        <v>68.270448925685415</v>
       </c>
       <c r="D32" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>77.201685106305618</v>
+        <v>69.894260378447854</v>
       </c>
       <c r="I32" s="1">
         <v>0.45</v>
@@ -12361,19 +12357,19 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O32" s="23"/>
       <c r="Q32" s="1" t="s">
@@ -12390,11 +12386,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.86037596081843</v>
+        <v>66.761191436458475</v>
       </c>
       <c r="D33" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>72.995672831744074</v>
+        <v>72.724502655213243</v>
       </c>
       <c r="I33" s="1">
         <v>0.5</v>
@@ -12405,7 +12401,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -12413,11 +12409,11 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O33" s="23"/>
       <c r="Q33" s="1" t="s">
@@ -12434,11 +12430,11 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.773216915280315</v>
+        <v>66.751511928787423</v>
       </c>
       <c r="D34" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>71.297497709311273</v>
+        <v>72.019223580465194</v>
       </c>
       <c r="I34" s="1">
         <v>0.55000000000000004</v>
@@ -12449,19 +12445,19 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O34" s="23"/>
       <c r="Q34" s="1" t="s">
@@ -12469,7 +12465,7 @@
       </c>
       <c r="R34" s="1">
         <f ca="1">AVERAGE(Heights1)</f>
-        <v>68.133684052406025</v>
+        <v>67.719729429700266</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
@@ -12478,11 +12474,11 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.10383723033172</v>
+        <v>68.46444676508294</v>
       </c>
       <c r="D35" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>67.390790184689038</v>
+        <v>78.008807709679331</v>
       </c>
       <c r="I35" s="1">
         <v>0.6</v>
@@ -12493,19 +12489,19 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O35" s="23"/>
       <c r="Q35" s="1" t="s">
@@ -12513,7 +12509,7 @@
       </c>
       <c r="R35" s="1">
         <f ca="1">AVERAGE(Heights2)</f>
-        <v>70.266554726721978</v>
+        <v>70.841727880702294</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
@@ -12522,11 +12518,11 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.628102389362823</v>
+        <v>66.509909499181546</v>
       </c>
       <c r="D36" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.235004524148465</v>
+        <v>70.506836964584366</v>
       </c>
       <c r="I36" s="1">
         <v>0.65</v>
@@ -12537,19 +12533,19 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O36" s="23"/>
     </row>
@@ -12559,11 +12555,11 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.160025331733308</v>
+        <v>68.971137323136006</v>
       </c>
       <c r="D37" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>67.314743345915488</v>
+        <v>73.972172116191871</v>
       </c>
       <c r="I37" s="1">
         <v>0.7</v>
@@ -12574,19 +12570,19 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O37" s="23"/>
       <c r="Q37" s="1" t="s">
@@ -12594,7 +12590,7 @@
       </c>
       <c r="R37" s="1">
         <f ca="1">xbar1-xbar2</f>
-        <v>-2.1328706743159529</v>
+        <v>-3.1219984510020282</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
@@ -12603,11 +12599,11 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.040343882761917</v>
+        <v>69.859354722607421</v>
       </c>
       <c r="D38" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.016404831454636</v>
+        <v>70.533872538046666</v>
       </c>
       <c r="I38" s="1">
         <v>0.75</v>
@@ -12618,19 +12614,19 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O38" s="23"/>
       <c r="Q38" s="1" t="s">
@@ -12638,7 +12634,7 @@
       </c>
       <c r="R38" s="1">
         <f ca="1">SQRT(_xlfn.VAR.S(Heights1)/n1_+_xlfn.VAR.S(Heights2)/n2_)</f>
-        <v>0.42997528903016619</v>
+        <v>0.44463437472884393</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
@@ -12647,11 +12643,11 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.979882008361898</v>
+        <v>65.496359271840959</v>
       </c>
       <c r="D39" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>72.473529697644082</v>
+        <v>69.488794126844383</v>
       </c>
       <c r="I39" s="1">
         <v>0.8</v>
@@ -12662,7 +12658,7 @@
       </c>
       <c r="K39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -12670,11 +12666,11 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O39" s="23"/>
       <c r="Q39" s="1" t="s">
@@ -12682,7 +12678,7 @@
       </c>
       <c r="R39" s="1">
         <f ca="1">R37/R38</f>
-        <v>-4.9604494228651248</v>
+        <v>-7.0214959266384867</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
@@ -12691,11 +12687,11 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.256489717522498</v>
+        <v>67.6691773509108</v>
       </c>
       <c r="D40" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>70.666268186875456</v>
+        <v>69.598988148966455</v>
       </c>
       <c r="I40" s="1">
         <v>0.85</v>
@@ -12710,15 +12706,15 @@
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O40" s="23"/>
       <c r="Q40" s="1" t="s">
@@ -12726,7 +12722,7 @@
       </c>
       <c r="R40" s="1">
         <f ca="1">_xlfn.T.DIST(R39,n-1,1)</f>
-        <v>1.4608259664629704E-6</v>
+        <v>1.3968186630843599E-10</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
@@ -12735,11 +12731,11 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.85868844181303</v>
+        <v>67.656734183076438</v>
       </c>
       <c r="D41" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>73.781591893052649</v>
+        <v>70.199491786415507</v>
       </c>
       <c r="I41" s="1">
         <v>0.9</v>
@@ -12758,11 +12754,11 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O41" s="23"/>
     </row>
@@ -12772,11 +12768,11 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.340808732015816</v>
+        <v>66.724934971652203</v>
       </c>
       <c r="D42" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.412699838136845</v>
+        <v>80.182276016436575</v>
       </c>
       <c r="I42" s="1">
         <v>0.95</v>
@@ -12795,11 +12791,11 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O42" s="23"/>
     </row>
@@ -12809,11 +12805,11 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.063819024490485</v>
+        <v>67.229434934585683</v>
       </c>
       <c r="D43" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>72.823369663242559</v>
+        <v>70.981061567859172</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -12832,11 +12828,11 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O43" s="23"/>
     </row>
@@ -12846,11 +12842,11 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.831508708515514</v>
+        <v>66.894684400119047</v>
       </c>
       <c r="D44" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.428873896543266</v>
+        <v>70.210164587265211</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
@@ -12859,11 +12855,11 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63.977333320576619</v>
+        <v>67.928452952936738</v>
       </c>
       <c r="D45" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>61.60940973094489</v>
+        <v>73.597899762145346</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
@@ -12872,11 +12868,11 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.863908606803093</v>
+        <v>68.264208433418787</v>
       </c>
       <c r="D46" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.311116740194649</v>
+        <v>73.406674228190425</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
@@ -12885,11 +12881,11 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.160156836888135</v>
+        <v>70.060068603691931</v>
       </c>
       <c r="D47" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>73.188331451368839</v>
+        <v>77.476949836667742</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.3">
@@ -12898,11 +12894,11 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.937772564897486</v>
+        <v>66.09304493536365</v>
       </c>
       <c r="D48" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>73.691839759566463</v>
+        <v>71.018543790235043</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -12911,11 +12907,11 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.472145530410529</v>
+        <v>66.524582969989012</v>
       </c>
       <c r="D49" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>75.327308524813645</v>
+        <v>63.092605638960528</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -12924,11 +12920,11 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.649754498815014</v>
+        <v>68.175740748718226</v>
       </c>
       <c r="D50" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>76.53133594906086</v>
+        <v>73.25902028197855</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -12937,11 +12933,11 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.375491273792477</v>
+        <v>67.493356253914342</v>
       </c>
       <c r="D51" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>66.814722764546076</v>
+        <v>74.977271321488914</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
@@ -12950,11 +12946,11 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>72.250956748058712</v>
+        <v>67.848319735329724</v>
       </c>
       <c r="D52" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>69.197012655476954</v>
+        <v>70.425716541640668</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -12963,11 +12959,11 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.598495101100468</v>
+        <v>68.411075792714314</v>
       </c>
       <c r="D53" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>73.046627388225687</v>
+        <v>65.29205866831299</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -12976,11 +12972,11 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.442687368143737</v>
+        <v>66.641713704533373</v>
       </c>
       <c r="D54" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>75.475580194703184</v>
+        <v>70.444663173158503</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -12989,11 +12985,11 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ref="C55:C86" ca="1" si="7">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>68.631360446417105</v>
+        <v>69.009449220201205</v>
       </c>
       <c r="D55" s="24">
         <f t="shared" ref="D55:D86" ca="1" si="8">_xlfn.NORM.INV(RAND(),70,4)</f>
-        <v>73.046422731392042</v>
+        <v>68.840165502775747</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -13002,11 +12998,11 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.958424399639398</v>
+        <v>65.82695564536732</v>
       </c>
       <c r="D56" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.554872406000769</v>
+        <v>74.830433293128209</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
@@ -13015,11 +13011,11 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>73.219030683925354</v>
+        <v>69.506330601850038</v>
       </c>
       <c r="D57" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>76.973105815189598</v>
+        <v>75.728962911726441</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -13028,11 +13024,11 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66.123869567492491</v>
+        <v>68.356939090491153</v>
       </c>
       <c r="D58" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>67.370642173482167</v>
+        <v>76.845812362311676</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -13041,11 +13037,11 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>65.542274511205576</v>
+        <v>68.521810612723115</v>
       </c>
       <c r="D59" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>71.722835995007657</v>
+        <v>71.156575217238938</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -13054,11 +13050,11 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69.463654950662715</v>
+        <v>67.842582661361902</v>
       </c>
       <c r="D60" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>65.211968774101194</v>
+        <v>71.039215864183731</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -13067,11 +13063,11 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.585398575524621</v>
+        <v>65.539368327795273</v>
       </c>
       <c r="D61" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>71.807495408989851</v>
+        <v>70.804728398413729</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
@@ -13080,11 +13076,11 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.991265704519407</v>
+        <v>64.309666593207908</v>
       </c>
       <c r="D62" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>62.873290021291702</v>
+        <v>72.348708695251531</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -13093,11 +13089,11 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>70.356601077501423</v>
+        <v>67.194280921058947</v>
       </c>
       <c r="D63" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>79.045603111989507</v>
+        <v>62.16377808751713</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
@@ -13106,11 +13102,11 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.496757114702078</v>
+        <v>70.002557741752227</v>
       </c>
       <c r="D64" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>75.447319761999154</v>
+        <v>73.798175796253929</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -13119,11 +13115,11 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>65.713735332326308</v>
+        <v>70.598763009682813</v>
       </c>
       <c r="D65" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>69.886567926674715</v>
+        <v>74.192412902271641</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -13132,11 +13128,11 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69.01392211126047</v>
+        <v>67.70008124130959</v>
       </c>
       <c r="D66" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>67.712319601955471</v>
+        <v>63.081246555559687</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -13145,11 +13141,11 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>71.77468255623603</v>
+        <v>71.801550496129252</v>
       </c>
       <c r="D67" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>73.356349841417853</v>
+        <v>66.878060668537316</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -13158,11 +13154,11 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.606673143016224</v>
+        <v>65.725344484116945</v>
       </c>
       <c r="D68" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>69.223738694284577</v>
+        <v>71.857003449922033</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -13171,11 +13167,11 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>70.651349708462291</v>
+        <v>69.01549575458084</v>
       </c>
       <c r="D69" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>66.091127681309501</v>
+        <v>67.631597594681367</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -13184,11 +13180,11 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66.462499826470264</v>
+        <v>67.500257211135903</v>
       </c>
       <c r="D70" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>76.232397829551445</v>
+        <v>62.894483895962182</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -13197,11 +13193,11 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.897050515449067</v>
+        <v>64.165466127750193</v>
       </c>
       <c r="D71" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>73.798044073888647</v>
+        <v>65.838870760228716</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
@@ -13210,11 +13206,11 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>69.468305729629819</v>
+        <v>68.726699008072444</v>
       </c>
       <c r="D72" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>72.380646421419769</v>
+        <v>67.261017760727569</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -13223,11 +13219,11 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>65.883903866967742</v>
+        <v>67.153528304048976</v>
       </c>
       <c r="D73" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>60.067629722388681</v>
+        <v>77.415104034348133</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -13236,11 +13232,11 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.694099327518387</v>
+        <v>69.339913010202466</v>
       </c>
       <c r="D74" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>74.938209224446936</v>
+        <v>75.492312627515716</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -13249,11 +13245,11 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66.854357119816555</v>
+        <v>67.219691404189646</v>
       </c>
       <c r="D75" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>69.78820684294439</v>
+        <v>73.184972713123599</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -13262,11 +13258,11 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.332330625404083</v>
+        <v>70.60626092595362</v>
       </c>
       <c r="D76" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.151845824917316</v>
+        <v>79.308609313084787</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
@@ -13275,11 +13271,11 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>71.463945138005968</v>
+        <v>67.596640009823389</v>
       </c>
       <c r="D77" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>67.56419895930533</v>
+        <v>69.15606659491921</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -13288,11 +13284,11 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>68.12424361821617</v>
+        <v>69.918270162831703</v>
       </c>
       <c r="D78" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>64.977868297133625</v>
+        <v>74.926762695285134</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
@@ -13301,11 +13297,11 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>71.313512303009901</v>
+        <v>69.054253235058724</v>
       </c>
       <c r="D79" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>74.807886936944698</v>
+        <v>66.814796001912413</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -13314,11 +13310,11 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>70.179365816330417</v>
+        <v>68.693883141247824</v>
       </c>
       <c r="D80" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>73.897668647083023</v>
+        <v>63.214764170629685</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -13327,11 +13323,11 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.942712645724271</v>
+        <v>62.978009563996089</v>
       </c>
       <c r="D81" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>68.29037208393764</v>
+        <v>67.022034991471159</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
@@ -13340,11 +13336,11 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.817371622688796</v>
+        <v>67.624344102386218</v>
       </c>
       <c r="D82" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>67.893225373510845</v>
+        <v>64.462852540352344</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
@@ -13353,11 +13349,11 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>70.359924378418285</v>
+        <v>67.819026534091478</v>
       </c>
       <c r="D83" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>67.328822690994784</v>
+        <v>67.040890273173204</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
@@ -13366,11 +13362,11 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.030188116096582</v>
+        <v>66.704192601433149</v>
       </c>
       <c r="D84" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>77.673111838588142</v>
+        <v>66.200804119426564</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
@@ -13379,11 +13375,11 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>67.791926795499066</v>
+        <v>68.313070261883141</v>
       </c>
       <c r="D85" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>70.135117670027995</v>
+        <v>70.446817413058412</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -13392,11 +13388,11 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>72.151372259857126</v>
+        <v>69.378512275939016</v>
       </c>
       <c r="D86" s="24">
         <f t="shared" ca="1" si="8"/>
-        <v>65.496680489250494</v>
+        <v>76.958879642711508</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
@@ -13405,11 +13401,11 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ref="C87:C122" ca="1" si="9">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>70.890031601052826</v>
+        <v>68.330448555655465</v>
       </c>
       <c r="D87" s="24">
         <f t="shared" ref="D87:D122" ca="1" si="10">_xlfn.NORM.INV(RAND(),70,4)</f>
-        <v>67.960325980657871</v>
+        <v>69.943330914222059</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
@@ -13418,11 +13414,11 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>65.697077842129957</v>
+        <v>66.393177151748588</v>
       </c>
       <c r="D88" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.47375657430284</v>
+        <v>71.972056318902077</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
@@ -13431,11 +13427,11 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>65.407003901452555</v>
+        <v>66.500293916728168</v>
       </c>
       <c r="D89" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.218143946192384</v>
+        <v>72.319481857422517</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
@@ -13444,11 +13440,11 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.793342651039197</v>
+        <v>71.167694232738157</v>
       </c>
       <c r="D90" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>67.23921578300353</v>
+        <v>73.779459041021369</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
@@ -13457,11 +13453,11 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>65.994364608200485</v>
+        <v>68.066960126532251</v>
       </c>
       <c r="D91" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.723516016560083</v>
+        <v>66.708524323488135</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
@@ -13470,11 +13466,11 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.488577600259887</v>
+        <v>69.135081185422322</v>
       </c>
       <c r="D92" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.76083172908875</v>
+        <v>66.38453986275826</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
@@ -13483,11 +13479,11 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.941543967902106</v>
+        <v>65.877025512463675</v>
       </c>
       <c r="D93" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.518665453797311</v>
+        <v>66.8307659672992</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
@@ -13496,11 +13492,11 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.984548095240783</v>
+        <v>69.906269965841304</v>
       </c>
       <c r="D94" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>66.984197906136671</v>
+        <v>78.844964941273147</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
@@ -13509,11 +13505,11 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.175080007525565</v>
+        <v>68.342403473728581</v>
       </c>
       <c r="D95" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>64.256834155104144</v>
+        <v>71.917616912831733</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
@@ -13522,11 +13518,11 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>64.38187940748864</v>
+        <v>71.220566367760043</v>
       </c>
       <c r="D96" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>72.860354987369647</v>
+        <v>66.972818994321528</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
@@ -13535,11 +13531,11 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.473599344369617</v>
+        <v>68.756614686085342</v>
       </c>
       <c r="D97" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>68.923050654662106</v>
+        <v>74.561567294880405</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
@@ -13548,11 +13544,11 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.553320229621633</v>
+        <v>66.416184349555749</v>
       </c>
       <c r="D98" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>67.805402544528945</v>
+        <v>71.449856508332644</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
@@ -13561,11 +13557,11 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.135982338350161</v>
+        <v>66.901642398059792</v>
       </c>
       <c r="D99" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.671743586455065</v>
+        <v>73.158111708226585</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
@@ -13574,11 +13570,11 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.586287558852447</v>
+        <v>67.559027384140833</v>
       </c>
       <c r="D100" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>65.842268283245488</v>
+        <v>64.350439663345838</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
@@ -13587,11 +13583,11 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>66.618921294362323</v>
+        <v>68.423325011298104</v>
       </c>
       <c r="D101" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>65.40840530269611</v>
+        <v>77.135009217411678</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
@@ -13600,11 +13596,11 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>61.79417280665507</v>
+        <v>68.200549150622422</v>
       </c>
       <c r="D102" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>68.361967835758477</v>
+        <v>66.935255768613615</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
@@ -13613,11 +13609,11 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.179334511624504</v>
+        <v>70.212167196542183</v>
       </c>
       <c r="D103" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>76.729717024470062</v>
+        <v>74.363070219942259</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
@@ -13626,11 +13622,11 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.33058963380941</v>
+        <v>67.876917380937911</v>
       </c>
       <c r="D104" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.570508218067133</v>
+        <v>74.89601460757396</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
@@ -13639,11 +13635,11 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.598130545902777</v>
+        <v>71.267284779357396</v>
       </c>
       <c r="D105" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>74.449140543040997</v>
+        <v>70.053857663604475</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
@@ -13652,11 +13648,11 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.694603144620942</v>
+        <v>67.093684769843705</v>
       </c>
       <c r="D106" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.582962009878798</v>
+        <v>75.892002589744791</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
@@ -13665,11 +13661,11 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.964542438601242</v>
+        <v>68.19560415606108</v>
       </c>
       <c r="D107" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>63.778270623066483</v>
+        <v>68.527645442618621</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
@@ -13678,11 +13674,11 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>66.803889863605377</v>
+        <v>66.448893974810957</v>
       </c>
       <c r="D108" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>79.309468369554182</v>
+        <v>69.396250713024145</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
@@ -13691,11 +13687,11 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.166219589526222</v>
+        <v>66.597429655120465</v>
       </c>
       <c r="D109" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>66.540027992469135</v>
+        <v>69.690962359377636</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
@@ -13704,11 +13700,11 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>65.992114428095434</v>
+        <v>66.563003154223964</v>
       </c>
       <c r="D110" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.276840589931595</v>
+        <v>67.628647979897352</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
@@ -13717,11 +13713,11 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.200207160310924</v>
+        <v>67.605974003481592</v>
       </c>
       <c r="D111" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>74.786211244049923</v>
+        <v>70.208441460018406</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
@@ -13730,11 +13726,11 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.788674530034413</v>
+        <v>67.937507149921302</v>
       </c>
       <c r="D112" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.885171020889018</v>
+        <v>74.277773069849914</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
@@ -13743,11 +13739,11 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>69.666865833618161</v>
+        <v>65.249905292136432</v>
       </c>
       <c r="D113" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>68.10815454349634</v>
+        <v>73.225380026957339</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
@@ -13756,11 +13752,11 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.104204369217754</v>
+        <v>67.047686041435441</v>
       </c>
       <c r="D114" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>65.336229480962103</v>
+        <v>68.23039210233145</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
@@ -13769,11 +13765,11 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.063976671811687</v>
+        <v>66.240473464468877</v>
       </c>
       <c r="D115" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.129147394037702</v>
+        <v>73.176959883598443</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
@@ -13782,11 +13778,11 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.664567895011132</v>
+        <v>65.212072445977483</v>
       </c>
       <c r="D116" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.26257079788779</v>
+        <v>66.979630889455876</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
@@ -13795,11 +13791,11 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70.073629183874729</v>
+        <v>69.007551492323643</v>
       </c>
       <c r="D117" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>68.860635308409044</v>
+        <v>79.366106370922523</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
@@ -13808,11 +13804,11 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>64.680472561924603</v>
+        <v>61.68556017689707</v>
       </c>
       <c r="D118" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>70.276689954218142</v>
+        <v>71.529276441921439</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
@@ -13821,11 +13817,11 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>67.102766788684306</v>
+        <v>67.802456720528781</v>
       </c>
       <c r="D119" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>68.981478566639325</v>
+        <v>67.797290260426834</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -13834,11 +13830,11 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>68.776270788208677</v>
+        <v>68.092703047719255</v>
       </c>
       <c r="D120" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>71.404942853725558</v>
+        <v>75.08053588538894</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
@@ -13847,11 +13843,11 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>66.516793850554677</v>
+        <v>66.014611191321634</v>
       </c>
       <c r="D121" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>69.565480168472192</v>
+        <v>66.686080760766004</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
@@ -13860,11 +13856,11 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>65.994390972699321</v>
+        <v>70.697262617829878</v>
       </c>
       <c r="D122" s="24">
         <f t="shared" ca="1" si="10"/>
-        <v>75.663207357129068</v>
+        <v>68.02865881338748</v>
       </c>
     </row>
   </sheetData>
@@ -14005,7 +14001,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
@@ -14500,7 +14496,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -14615,9 +14611,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14646,7 +14640,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -14670,7 +14664,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14706,12 +14700,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -15005,9 +14999,7 @@
   </sheetPr>
   <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15027,16 +15019,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>220</v>
@@ -15048,7 +15040,7 @@
       </c>
       <c r="B3" s="39">
         <f ca="1">TODAY()</f>
-        <v>45208</v>
+        <v>45913</v>
       </c>
       <c r="C3" s="22">
         <v>97.330194448806154</v>
@@ -15066,7 +15058,7 @@
       </c>
       <c r="B4" s="39">
         <f ca="1">B3-1</f>
-        <v>45207</v>
+        <v>45912</v>
       </c>
       <c r="C4" s="22">
         <v>99.110165349296352</v>
@@ -15084,7 +15076,7 @@
       </c>
       <c r="B5" s="39">
         <f t="shared" ref="B5:B68" ca="1" si="0">B4-1</f>
-        <v>45206</v>
+        <v>45911</v>
       </c>
       <c r="C5" s="22">
         <v>99.636136756338487</v>
@@ -15096,7 +15088,7 @@
         <v>221</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -15105,7 +15097,7 @@
       </c>
       <c r="B6" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45205</v>
+        <v>45910</v>
       </c>
       <c r="C6" s="22">
         <v>102.27417719797096</v>
@@ -15126,7 +15118,7 @@
       </c>
       <c r="B7" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45909</v>
       </c>
       <c r="C7" s="22">
         <v>102.98667713562625</v>
@@ -15135,7 +15127,7 @@
         <v>-1.0152725889662741E-2</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -15144,7 +15136,7 @@
       </c>
       <c r="B8" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45203</v>
+        <v>45908</v>
       </c>
       <c r="C8" s="22">
         <v>104.04299716659767</v>
@@ -15162,7 +15154,7 @@
       </c>
       <c r="B9" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45202</v>
+        <v>45907</v>
       </c>
       <c r="C9" s="22">
         <v>102.91140857675911</v>
@@ -15180,7 +15172,7 @@
       </c>
       <c r="B10" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45201</v>
+        <v>45906</v>
       </c>
       <c r="C10" s="22">
         <v>101.53360209774544</v>
@@ -15198,7 +15190,7 @@
       </c>
       <c r="B11" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45905</v>
       </c>
       <c r="C11" s="22">
         <v>100.98352828064763</v>
@@ -15210,7 +15202,7 @@
         <v>224</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -15219,7 +15211,7 @@
       </c>
       <c r="B12" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45199</v>
+        <v>45904</v>
       </c>
       <c r="C12" s="22">
         <v>101.53406475547202</v>
@@ -15228,7 +15220,7 @@
         <v>1.5778086356846416E-3</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -15237,7 +15229,7 @@
       </c>
       <c r="B13" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45198</v>
+        <v>45903</v>
       </c>
       <c r="C13" s="22">
         <v>101.37411580012768</v>
@@ -15255,7 +15247,7 @@
       </c>
       <c r="B14" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45197</v>
+        <v>45902</v>
       </c>
       <c r="C14" s="22">
         <v>99.379092134241489</v>
@@ -15267,7 +15259,7 @@
         <v>225</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -15276,7 +15268,7 @@
       </c>
       <c r="B15" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45196</v>
+        <v>45901</v>
       </c>
       <c r="C15" s="22">
         <v>96.275439643693247</v>
@@ -15285,7 +15277,7 @@
         <v>3.8896193780568293E-2</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -15294,7 +15286,7 @@
       </c>
       <c r="B16" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45195</v>
+        <v>45900</v>
       </c>
       <c r="C16" s="22">
         <v>92.670894570654454</v>
@@ -15306,7 +15298,7 @@
         <v>226</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -15315,7 +15307,7 @@
       </c>
       <c r="B17" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45194</v>
+        <v>45899</v>
       </c>
       <c r="C17" s="22">
         <v>94.134737716455319</v>
@@ -15324,10 +15316,10 @@
         <v>-3.3335664489410707E-2</v>
       </c>
       <c r="F17" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>325</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -15336,7 +15328,7 @@
       </c>
       <c r="B18" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45193</v>
+        <v>45898</v>
       </c>
       <c r="C18" s="22">
         <v>97.380997993200637</v>
@@ -15345,10 +15337,10 @@
         <v>-1.2662274104925784E-2</v>
       </c>
       <c r="F18" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>327</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -15357,7 +15349,7 @@
       </c>
       <c r="B19" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45192</v>
+        <v>45897</v>
       </c>
       <c r="C19" s="22">
         <v>98.629876524691269</v>
@@ -15372,7 +15364,7 @@
       </c>
       <c r="B20" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45191</v>
+        <v>45896</v>
       </c>
       <c r="C20" s="22">
         <v>99.154061814195799</v>
@@ -15387,7 +15379,7 @@
       </c>
       <c r="B21" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45190</v>
+        <v>45895</v>
       </c>
       <c r="C21" s="22">
         <v>97.582445797227351</v>
@@ -15402,7 +15394,7 @@
       </c>
       <c r="B22" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45189</v>
+        <v>45894</v>
       </c>
       <c r="C22" s="22">
         <v>98.147452006664579</v>
@@ -15417,7 +15409,7 @@
       </c>
       <c r="B23" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45188</v>
+        <v>45893</v>
       </c>
       <c r="C23" s="22">
         <v>100.18100923308391</v>
@@ -15432,7 +15424,7 @@
       </c>
       <c r="B24" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45187</v>
+        <v>45892</v>
       </c>
       <c r="C24" s="22">
         <v>107.79574743322713</v>
@@ -15447,7 +15439,7 @@
       </c>
       <c r="B25" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45186</v>
+        <v>45891</v>
       </c>
       <c r="C25" s="22">
         <v>109.4985657253571</v>
@@ -15462,7 +15454,7 @@
       </c>
       <c r="B26" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45185</v>
+        <v>45890</v>
       </c>
       <c r="C26" s="22">
         <v>110.14565451404034</v>
@@ -15477,7 +15469,7 @@
       </c>
       <c r="B27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45184</v>
+        <v>45889</v>
       </c>
       <c r="C27" s="22">
         <v>114.83371240692399</v>
@@ -15492,7 +15484,7 @@
       </c>
       <c r="B28" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45183</v>
+        <v>45888</v>
       </c>
       <c r="C28" s="22">
         <v>112.67248592121376</v>
@@ -15507,7 +15499,7 @@
       </c>
       <c r="B29" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45182</v>
+        <v>45887</v>
       </c>
       <c r="C29" s="22">
         <v>113.84371111480139</v>
@@ -15522,7 +15514,7 @@
       </c>
       <c r="B30" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45181</v>
+        <v>45886</v>
       </c>
       <c r="C30" s="22">
         <v>115.94098873367979</v>
@@ -15537,7 +15529,7 @@
       </c>
       <c r="B31" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45180</v>
+        <v>45885</v>
       </c>
       <c r="C31" s="22">
         <v>115.99340053074575</v>
@@ -15552,7 +15544,7 @@
       </c>
       <c r="B32" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45179</v>
+        <v>45884</v>
       </c>
       <c r="C32" s="22">
         <v>118.69049550693012</v>
@@ -15567,7 +15559,7 @@
       </c>
       <c r="B33" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45178</v>
+        <v>45883</v>
       </c>
       <c r="C33" s="22">
         <v>119.52076549508202</v>
@@ -15582,7 +15574,7 @@
       </c>
       <c r="B34" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45177</v>
+        <v>45882</v>
       </c>
       <c r="C34" s="22">
         <v>117.66310363914653</v>
@@ -15597,7 +15589,7 @@
       </c>
       <c r="B35" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45176</v>
+        <v>45881</v>
       </c>
       <c r="C35" s="22">
         <v>115.65740361283663</v>
@@ -15612,7 +15604,7 @@
       </c>
       <c r="B36" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45175</v>
+        <v>45880</v>
       </c>
       <c r="C36" s="22">
         <v>119.90039975920888</v>
@@ -15627,7 +15619,7 @@
       </c>
       <c r="B37" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45174</v>
+        <v>45879</v>
       </c>
       <c r="C37" s="22">
         <v>117.64016045282595</v>
@@ -15642,7 +15634,7 @@
       </c>
       <c r="B38" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45173</v>
+        <v>45878</v>
       </c>
       <c r="C38" s="22">
         <v>117.00248540896203</v>
@@ -15657,7 +15649,7 @@
       </c>
       <c r="B39" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45172</v>
+        <v>45877</v>
       </c>
       <c r="C39" s="22">
         <v>118.33528444323485</v>
@@ -15672,7 +15664,7 @@
       </c>
       <c r="B40" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45171</v>
+        <v>45876</v>
       </c>
       <c r="C40" s="22">
         <v>121.47803638749735</v>
@@ -15687,7 +15679,7 @@
       </c>
       <c r="B41" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45170</v>
+        <v>45875</v>
       </c>
       <c r="C41" s="22">
         <v>120.14528089645786</v>
@@ -15702,7 +15694,7 @@
       </c>
       <c r="B42" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45169</v>
+        <v>45874</v>
       </c>
       <c r="C42" s="22">
         <v>123.98410826664411</v>
@@ -15717,7 +15709,7 @@
       </c>
       <c r="B43" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
+        <v>45873</v>
       </c>
       <c r="C43" s="22">
         <v>122.86379330171253</v>
@@ -15732,7 +15724,7 @@
       </c>
       <c r="B44" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45167</v>
+        <v>45872</v>
       </c>
       <c r="C44" s="22">
         <v>122.46690392203783</v>
@@ -15747,7 +15739,7 @@
       </c>
       <c r="B45" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45166</v>
+        <v>45871</v>
       </c>
       <c r="C45" s="22">
         <v>122.31534774139193</v>
@@ -15762,7 +15754,7 @@
       </c>
       <c r="B46" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
+        <v>45870</v>
       </c>
       <c r="C46" s="22">
         <v>124.23085170233583</v>
@@ -15777,7 +15769,7 @@
       </c>
       <c r="B47" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45164</v>
+        <v>45869</v>
       </c>
       <c r="C47" s="22">
         <v>124.03890576554507</v>
@@ -15792,7 +15784,7 @@
       </c>
       <c r="B48" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45163</v>
+        <v>45868</v>
       </c>
       <c r="C48" s="22">
         <v>127.24857725052824</v>
@@ -15807,7 +15799,7 @@
       </c>
       <c r="B49" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45162</v>
+        <v>45867</v>
       </c>
       <c r="C49" s="22">
         <v>126.19291852250439</v>
@@ -15822,7 +15814,7 @@
       </c>
       <c r="B50" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45161</v>
+        <v>45866</v>
       </c>
       <c r="C50" s="22">
         <v>125.14274761580207</v>
@@ -15837,7 +15829,7 @@
       </c>
       <c r="B51" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45160</v>
+        <v>45865</v>
       </c>
       <c r="C51" s="22">
         <v>122.9057091906796</v>
@@ -15852,7 +15844,7 @@
       </c>
       <c r="B52" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45159</v>
+        <v>45864</v>
       </c>
       <c r="C52" s="22">
         <v>122.32698632838053</v>
@@ -15867,7 +15859,7 @@
       </c>
       <c r="B53" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45158</v>
+        <v>45863</v>
       </c>
       <c r="C53" s="22">
         <v>116.48431067369729</v>
@@ -15882,7 +15874,7 @@
       </c>
       <c r="B54" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45157</v>
+        <v>45862</v>
       </c>
       <c r="C54" s="22">
         <v>117.48287118820326</v>
@@ -15897,7 +15889,7 @@
       </c>
       <c r="B55" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45156</v>
+        <v>45861</v>
       </c>
       <c r="C55" s="22">
         <v>118.89505608313728</v>
@@ -15912,7 +15904,7 @@
       </c>
       <c r="B56" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45155</v>
+        <v>45860</v>
       </c>
       <c r="C56" s="22">
         <v>116.72673418729111</v>
@@ -15927,7 +15919,7 @@
       </c>
       <c r="B57" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
+        <v>45859</v>
       </c>
       <c r="C57" s="22">
         <v>118.06718185165172</v>
@@ -15942,7 +15934,7 @@
       </c>
       <c r="B58" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45153</v>
+        <v>45858</v>
       </c>
       <c r="C58" s="22">
         <v>122.53084139427912</v>
@@ -15957,7 +15949,7 @@
       </c>
       <c r="B59" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45152</v>
+        <v>45857</v>
       </c>
       <c r="C59" s="22">
         <v>123.7223539826205</v>
@@ -15972,7 +15964,7 @@
       </c>
       <c r="B60" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45151</v>
+        <v>45856</v>
       </c>
       <c r="C60" s="22">
         <v>123.46296598043538</v>
@@ -15987,7 +15979,7 @@
       </c>
       <c r="B61" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45150</v>
+        <v>45855</v>
       </c>
       <c r="C61" s="22">
         <v>122.59212020860637</v>
@@ -16002,7 +15994,7 @@
       </c>
       <c r="B62" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45149</v>
+        <v>45854</v>
       </c>
       <c r="C62" s="22">
         <v>120.3004383971201</v>
@@ -16017,7 +16009,7 @@
       </c>
       <c r="B63" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45148</v>
+        <v>45853</v>
       </c>
       <c r="C63" s="22">
         <v>119.79806027279149</v>
@@ -16032,7 +16024,7 @@
       </c>
       <c r="B64" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45147</v>
+        <v>45852</v>
       </c>
       <c r="C64" s="22">
         <v>117.25194383501504</v>
@@ -16047,7 +16039,7 @@
       </c>
       <c r="B65" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45146</v>
+        <v>45851</v>
       </c>
       <c r="C65" s="22">
         <v>113.20187483857026</v>
@@ -16062,7 +16054,7 @@
       </c>
       <c r="B66" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45145</v>
+        <v>45850</v>
       </c>
       <c r="C66" s="22">
         <v>113.91009149663707</v>
@@ -16077,7 +16069,7 @@
       </c>
       <c r="B67" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45144</v>
+        <v>45849</v>
       </c>
       <c r="C67" s="22">
         <v>113.57397846233148</v>
@@ -16092,7 +16084,7 @@
       </c>
       <c r="B68" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>45143</v>
+        <v>45848</v>
       </c>
       <c r="C68" s="22">
         <v>110.82601470146901</v>
@@ -16107,7 +16099,7 @@
       </c>
       <c r="B69" s="39">
         <f t="shared" ref="B69:B132" ca="1" si="1">B68-1</f>
-        <v>45142</v>
+        <v>45847</v>
       </c>
       <c r="C69" s="22">
         <v>110.28376133118915</v>
@@ -16122,7 +16114,7 @@
       </c>
       <c r="B70" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45141</v>
+        <v>45846</v>
       </c>
       <c r="C70" s="22">
         <v>107.73175666887069</v>
@@ -16137,7 +16129,7 @@
       </c>
       <c r="B71" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45140</v>
+        <v>45845</v>
       </c>
       <c r="C71" s="22">
         <v>110.7827088925816</v>
@@ -16152,7 +16144,7 @@
       </c>
       <c r="B72" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45139</v>
+        <v>45844</v>
       </c>
       <c r="C72" s="22">
         <v>113.53054882619006</v>
@@ -16167,7 +16159,7 @@
       </c>
       <c r="B73" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45138</v>
+        <v>45843</v>
       </c>
       <c r="C73" s="22">
         <v>114.53953131253894</v>
@@ -16182,7 +16174,7 @@
       </c>
       <c r="B74" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45137</v>
+        <v>45842</v>
       </c>
       <c r="C74" s="22">
         <v>118.02370371784376</v>
@@ -16197,7 +16189,7 @@
       </c>
       <c r="B75" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45841</v>
       </c>
       <c r="C75" s="22">
         <v>117.76142455946265</v>
@@ -16212,7 +16204,7 @@
       </c>
       <c r="B76" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45135</v>
+        <v>45840</v>
       </c>
       <c r="C76" s="22">
         <v>119.70459734070619</v>
@@ -16227,7 +16219,7 @@
       </c>
       <c r="B77" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45134</v>
+        <v>45839</v>
       </c>
       <c r="C77" s="22">
         <v>120.7625189553906</v>
@@ -16242,7 +16234,7 @@
       </c>
       <c r="B78" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45838</v>
       </c>
       <c r="C78" s="22">
         <v>119.12352149387318</v>
@@ -16257,7 +16249,7 @@
       </c>
       <c r="B79" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45132</v>
+        <v>45837</v>
       </c>
       <c r="C79" s="22">
         <v>121.08926007113985</v>
@@ -16272,7 +16264,7 @@
       </c>
       <c r="B80" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45131</v>
+        <v>45836</v>
       </c>
       <c r="C80" s="22">
         <v>126.7024024467599</v>
@@ -16287,7 +16279,7 @@
       </c>
       <c r="B81" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45130</v>
+        <v>45835</v>
       </c>
       <c r="C81" s="22">
         <v>126.3189812750653</v>
@@ -16302,7 +16294,7 @@
       </c>
       <c r="B82" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45129</v>
+        <v>45834</v>
       </c>
       <c r="C82" s="22">
         <v>128.45886258956841</v>
@@ -16317,7 +16309,7 @@
       </c>
       <c r="B83" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45833</v>
       </c>
       <c r="C83" s="22">
         <v>125.40975664018912</v>
@@ -16332,7 +16324,7 @@
       </c>
       <c r="B84" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45127</v>
+        <v>45832</v>
       </c>
       <c r="C84" s="22">
         <v>124.71879583482021</v>
@@ -16347,7 +16339,7 @@
       </c>
       <c r="B85" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45126</v>
+        <v>45831</v>
       </c>
       <c r="C85" s="22">
         <v>120.15655638247267</v>
@@ -16362,7 +16354,7 @@
       </c>
       <c r="B86" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45830</v>
       </c>
       <c r="C86" s="22">
         <v>126.68799172245924</v>
@@ -16377,7 +16369,7 @@
       </c>
       <c r="B87" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45124</v>
+        <v>45829</v>
       </c>
       <c r="C87" s="22">
         <v>127.94149430244512</v>
@@ -16392,7 +16384,7 @@
       </c>
       <c r="B88" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45123</v>
+        <v>45828</v>
       </c>
       <c r="C88" s="22">
         <v>128.10740803715188</v>
@@ -16407,7 +16399,7 @@
       </c>
       <c r="B89" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45122</v>
+        <v>45827</v>
       </c>
       <c r="C89" s="22">
         <v>128.99550038929155</v>
@@ -16422,7 +16414,7 @@
       </c>
       <c r="B90" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45121</v>
+        <v>45826</v>
       </c>
       <c r="C90" s="22">
         <v>127.39412495838565</v>
@@ -16437,7 +16429,7 @@
       </c>
       <c r="B91" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45120</v>
+        <v>45825</v>
       </c>
       <c r="C91" s="22">
         <v>125.53536619601266</v>
@@ -16452,7 +16444,7 @@
       </c>
       <c r="B92" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45119</v>
+        <v>45824</v>
       </c>
       <c r="C92" s="22">
         <v>128.14987458068086</v>
@@ -16467,7 +16459,7 @@
       </c>
       <c r="B93" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45118</v>
+        <v>45823</v>
       </c>
       <c r="C93" s="22">
         <v>132.74023495954654</v>
@@ -16482,7 +16474,7 @@
       </c>
       <c r="B94" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45117</v>
+        <v>45822</v>
       </c>
       <c r="C94" s="22">
         <v>130.22999441647985</v>
@@ -16497,7 +16489,7 @@
       </c>
       <c r="B95" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45116</v>
+        <v>45821</v>
       </c>
       <c r="C95" s="22">
         <v>133.76309930673509</v>
@@ -16512,7 +16504,7 @@
       </c>
       <c r="B96" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45115</v>
+        <v>45820</v>
       </c>
       <c r="C96" s="22">
         <v>137.00192512428569</v>
@@ -16527,7 +16519,7 @@
       </c>
       <c r="B97" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45114</v>
+        <v>45819</v>
       </c>
       <c r="C97" s="22">
         <v>137.65133493385227</v>
@@ -16542,7 +16534,7 @@
       </c>
       <c r="B98" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45113</v>
+        <v>45818</v>
       </c>
       <c r="C98" s="22">
         <v>139.0611847111692</v>
@@ -16557,7 +16549,7 @@
       </c>
       <c r="B99" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45817</v>
       </c>
       <c r="C99" s="22">
         <v>134.23668167554897</v>
@@ -16572,7 +16564,7 @@
       </c>
       <c r="B100" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45816</v>
       </c>
       <c r="C100" s="22">
         <v>132.89312121206117</v>
@@ -16587,7 +16579,7 @@
       </c>
       <c r="B101" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45110</v>
+        <v>45815</v>
       </c>
       <c r="C101" s="22">
         <v>132.88591573712768</v>
@@ -16602,7 +16594,7 @@
       </c>
       <c r="B102" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45109</v>
+        <v>45814</v>
       </c>
       <c r="C102" s="22">
         <v>126.50969218633496</v>
@@ -16617,7 +16609,7 @@
       </c>
       <c r="B103" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45108</v>
+        <v>45813</v>
       </c>
       <c r="C103" s="22">
         <v>122.17690086384751</v>
@@ -16632,7 +16624,7 @@
       </c>
       <c r="B104" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45107</v>
+        <v>45812</v>
       </c>
       <c r="C104" s="22">
         <v>120.8891063326369</v>
@@ -16647,7 +16639,7 @@
       </c>
       <c r="B105" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45106</v>
+        <v>45811</v>
       </c>
       <c r="C105" s="22">
         <v>119.90822463713148</v>
@@ -16662,7 +16654,7 @@
       </c>
       <c r="B106" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45105</v>
+        <v>45810</v>
       </c>
       <c r="C106" s="22">
         <v>117.14608464043937</v>
@@ -16677,7 +16669,7 @@
       </c>
       <c r="B107" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45104</v>
+        <v>45809</v>
       </c>
       <c r="C107" s="22">
         <v>115.69195159281733</v>
@@ -16692,7 +16684,7 @@
       </c>
       <c r="B108" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45103</v>
+        <v>45808</v>
       </c>
       <c r="C108" s="22">
         <v>115.09091064867714</v>
@@ -16707,7 +16699,7 @@
       </c>
       <c r="B109" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45102</v>
+        <v>45807</v>
       </c>
       <c r="C109" s="22">
         <v>113.33225572366652</v>
@@ -16722,7 +16714,7 @@
       </c>
       <c r="B110" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45101</v>
+        <v>45806</v>
       </c>
       <c r="C110" s="22">
         <v>111.20943288346643</v>
@@ -16737,7 +16729,7 @@
       </c>
       <c r="B111" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45100</v>
+        <v>45805</v>
       </c>
       <c r="C111" s="22">
         <v>113.62478821346569</v>
@@ -16752,7 +16744,7 @@
       </c>
       <c r="B112" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45099</v>
+        <v>45804</v>
       </c>
       <c r="C112" s="22">
         <v>114.22784713469517</v>
@@ -16767,7 +16759,7 @@
       </c>
       <c r="B113" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45803</v>
       </c>
       <c r="C113" s="22">
         <v>112.72761252314572</v>
@@ -16782,7 +16774,7 @@
       </c>
       <c r="B114" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45097</v>
+        <v>45802</v>
       </c>
       <c r="C114" s="22">
         <v>109.66413136836532</v>
@@ -16797,7 +16789,7 @@
       </c>
       <c r="B115" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45096</v>
+        <v>45801</v>
       </c>
       <c r="C115" s="22">
         <v>108.03636209850794</v>
@@ -16812,7 +16804,7 @@
       </c>
       <c r="B116" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45095</v>
+        <v>45800</v>
       </c>
       <c r="C116" s="22">
         <v>110.07183143185725</v>
@@ -16827,7 +16819,7 @@
       </c>
       <c r="B117" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45799</v>
       </c>
       <c r="C117" s="22">
         <v>113.17122690055817</v>
@@ -16842,7 +16834,7 @@
       </c>
       <c r="B118" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45093</v>
+        <v>45798</v>
       </c>
       <c r="C118" s="22">
         <v>113.01828972503813</v>
@@ -16857,7 +16849,7 @@
       </c>
       <c r="B119" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45092</v>
+        <v>45797</v>
       </c>
       <c r="C119" s="22">
         <v>111.51717569887869</v>
@@ -16872,7 +16864,7 @@
       </c>
       <c r="B120" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45796</v>
       </c>
       <c r="C120" s="22">
         <v>108.52870777320797</v>
@@ -16887,7 +16879,7 @@
       </c>
       <c r="B121" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45090</v>
+        <v>45795</v>
       </c>
       <c r="C121" s="22">
         <v>107.87334559221028</v>
@@ -16902,7 +16894,7 @@
       </c>
       <c r="B122" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45089</v>
+        <v>45794</v>
       </c>
       <c r="C122" s="22">
         <v>105.21995150113285</v>
@@ -16917,7 +16909,7 @@
       </c>
       <c r="B123" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45088</v>
+        <v>45793</v>
       </c>
       <c r="C123" s="22">
         <v>105.52438419459324</v>
@@ -16932,7 +16924,7 @@
       </c>
       <c r="B124" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45087</v>
+        <v>45792</v>
       </c>
       <c r="C124" s="22">
         <v>107.49349423520806</v>
@@ -16947,7 +16939,7 @@
       </c>
       <c r="B125" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45086</v>
+        <v>45791</v>
       </c>
       <c r="C125" s="22">
         <v>104.16409591124371</v>
@@ -16962,7 +16954,7 @@
       </c>
       <c r="B126" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45085</v>
+        <v>45790</v>
       </c>
       <c r="C126" s="22">
         <v>105.16142521594674</v>
@@ -16977,7 +16969,7 @@
       </c>
       <c r="B127" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45084</v>
+        <v>45789</v>
       </c>
       <c r="C127" s="22">
         <v>100.98227696554069</v>
@@ -16992,7 +16984,7 @@
       </c>
       <c r="B128" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45083</v>
+        <v>45788</v>
       </c>
       <c r="C128" s="22">
         <v>102.70413948101945</v>
@@ -17007,7 +16999,7 @@
       </c>
       <c r="B129" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45082</v>
+        <v>45787</v>
       </c>
       <c r="C129" s="22">
         <v>103.22337265882098</v>
@@ -17022,7 +17014,7 @@
       </c>
       <c r="B130" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45081</v>
+        <v>45786</v>
       </c>
       <c r="C130" s="22">
         <v>102.9288838583921</v>
@@ -17037,7 +17029,7 @@
       </c>
       <c r="B131" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45080</v>
+        <v>45785</v>
       </c>
       <c r="C131" s="22">
         <v>104.0231328708476</v>
@@ -17052,7 +17044,7 @@
       </c>
       <c r="B132" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>45079</v>
+        <v>45784</v>
       </c>
       <c r="C132" s="22">
         <v>102.51674087804949</v>
@@ -17067,7 +17059,7 @@
       </c>
       <c r="B133" s="39">
         <f t="shared" ref="B133:B196" ca="1" si="2">B132-1</f>
-        <v>45078</v>
+        <v>45783</v>
       </c>
       <c r="C133" s="22">
         <v>101.85225883532557</v>
@@ -17082,7 +17074,7 @@
       </c>
       <c r="B134" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45077</v>
+        <v>45782</v>
       </c>
       <c r="C134" s="22">
         <v>102.20005799495846</v>
@@ -17097,7 +17089,7 @@
       </c>
       <c r="B135" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45076</v>
+        <v>45781</v>
       </c>
       <c r="C135" s="22">
         <v>99.858178201321209</v>
@@ -17112,7 +17104,7 @@
       </c>
       <c r="B136" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45075</v>
+        <v>45780</v>
       </c>
       <c r="C136" s="22">
         <v>99.374082199775486</v>
@@ -17127,7 +17119,7 @@
       </c>
       <c r="B137" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45074</v>
+        <v>45779</v>
       </c>
       <c r="C137" s="22">
         <v>97.629715167309612</v>
@@ -17142,7 +17134,7 @@
       </c>
       <c r="B138" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45073</v>
+        <v>45778</v>
       </c>
       <c r="C138" s="22">
         <v>98.40820977823472</v>
@@ -17157,7 +17149,7 @@
       </c>
       <c r="B139" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45777</v>
       </c>
       <c r="C139" s="22">
         <v>95.503516081949698</v>
@@ -17172,7 +17164,7 @@
       </c>
       <c r="B140" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45071</v>
+        <v>45776</v>
       </c>
       <c r="C140" s="22">
         <v>94.840297680185373</v>
@@ -17187,7 +17179,7 @@
       </c>
       <c r="B141" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45070</v>
+        <v>45775</v>
       </c>
       <c r="C141" s="22">
         <v>97.588144608496464</v>
@@ -17202,7 +17194,7 @@
       </c>
       <c r="B142" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45069</v>
+        <v>45774</v>
       </c>
       <c r="C142" s="22">
         <v>96.423638577903901</v>
@@ -17217,7 +17209,7 @@
       </c>
       <c r="B143" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45068</v>
+        <v>45773</v>
       </c>
       <c r="C143" s="22">
         <v>94.991021250915011</v>
@@ -17232,7 +17224,7 @@
       </c>
       <c r="B144" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45067</v>
+        <v>45772</v>
       </c>
       <c r="C144" s="22">
         <v>94.059404116869416</v>
@@ -17247,7 +17239,7 @@
       </c>
       <c r="B145" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45066</v>
+        <v>45771</v>
       </c>
       <c r="C145" s="22">
         <v>96.101786831631671</v>
@@ -17262,7 +17254,7 @@
       </c>
       <c r="B146" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45065</v>
+        <v>45770</v>
       </c>
       <c r="C146" s="22">
         <v>95.056485500666653</v>
@@ -17277,7 +17269,7 @@
       </c>
       <c r="B147" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45064</v>
+        <v>45769</v>
       </c>
       <c r="C147" s="22">
         <v>96.877633520582464</v>
@@ -17292,7 +17284,7 @@
       </c>
       <c r="B148" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45063</v>
+        <v>45768</v>
       </c>
       <c r="C148" s="22">
         <v>97.173746624636195</v>
@@ -17307,7 +17299,7 @@
       </c>
       <c r="B149" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45062</v>
+        <v>45767</v>
       </c>
       <c r="C149" s="22">
         <v>95.462197691052708</v>
@@ -17322,7 +17314,7 @@
       </c>
       <c r="B150" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45061</v>
+        <v>45766</v>
       </c>
       <c r="C150" s="22">
         <v>92.054268448120951</v>
@@ -17337,7 +17329,7 @@
       </c>
       <c r="B151" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45060</v>
+        <v>45765</v>
       </c>
       <c r="C151" s="22">
         <v>89.936650306394426</v>
@@ -17352,7 +17344,7 @@
       </c>
       <c r="B152" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45764</v>
       </c>
       <c r="C152" s="22">
         <v>91.705747321483926</v>
@@ -17367,7 +17359,7 @@
       </c>
       <c r="B153" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45058</v>
+        <v>45763</v>
       </c>
       <c r="C153" s="22">
         <v>93.39880268902175</v>
@@ -17382,7 +17374,7 @@
       </c>
       <c r="B154" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45057</v>
+        <v>45762</v>
       </c>
       <c r="C154" s="22">
         <v>93.634028529864722</v>
@@ -17397,7 +17389,7 @@
       </c>
       <c r="B155" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45056</v>
+        <v>45761</v>
       </c>
       <c r="C155" s="22">
         <v>94.25691388380919</v>
@@ -17412,7 +17404,7 @@
       </c>
       <c r="B156" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45055</v>
+        <v>45760</v>
       </c>
       <c r="C156" s="22">
         <v>94.845591981286631</v>
@@ -17427,7 +17419,7 @@
       </c>
       <c r="B157" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45054</v>
+        <v>45759</v>
       </c>
       <c r="C157" s="22">
         <v>94.017834886941898</v>
@@ -17442,7 +17434,7 @@
       </c>
       <c r="B158" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45053</v>
+        <v>45758</v>
       </c>
       <c r="C158" s="22">
         <v>97.317230498556924</v>
@@ -17457,7 +17449,7 @@
       </c>
       <c r="B159" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45052</v>
+        <v>45757</v>
       </c>
       <c r="C159" s="22">
         <v>94.921915506312331</v>
@@ -17472,7 +17464,7 @@
       </c>
       <c r="B160" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45051</v>
+        <v>45756</v>
       </c>
       <c r="C160" s="22">
         <v>96.712938529826602</v>
@@ -17487,7 +17479,7 @@
       </c>
       <c r="B161" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45050</v>
+        <v>45755</v>
       </c>
       <c r="C161" s="22">
         <v>92.754099119176445</v>
@@ -17502,7 +17494,7 @@
       </c>
       <c r="B162" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45049</v>
+        <v>45754</v>
       </c>
       <c r="C162" s="22">
         <v>93.01817179588997</v>
@@ -17517,7 +17509,7 @@
       </c>
       <c r="B163" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45048</v>
+        <v>45753</v>
       </c>
       <c r="C163" s="22">
         <v>93.702288897896807</v>
@@ -17532,7 +17524,7 @@
       </c>
       <c r="B164" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45047</v>
+        <v>45752</v>
       </c>
       <c r="C164" s="22">
         <v>94.83298070128383</v>
@@ -17547,7 +17539,7 @@
       </c>
       <c r="B165" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45046</v>
+        <v>45751</v>
       </c>
       <c r="C165" s="22">
         <v>95.639983190942019</v>
@@ -17562,7 +17554,7 @@
       </c>
       <c r="B166" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45045</v>
+        <v>45750</v>
       </c>
       <c r="C166" s="22">
         <v>96.883580213917753</v>
@@ -17577,7 +17569,7 @@
       </c>
       <c r="B167" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45749</v>
       </c>
       <c r="C167" s="22">
         <v>96.548544984461145</v>
@@ -17592,7 +17584,7 @@
       </c>
       <c r="B168" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45043</v>
+        <v>45748</v>
       </c>
       <c r="C168" s="22">
         <v>100.2805935756702</v>
@@ -17607,7 +17599,7 @@
       </c>
       <c r="B169" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45042</v>
+        <v>45747</v>
       </c>
       <c r="C169" s="22">
         <v>99.337246963270971</v>
@@ -17622,7 +17614,7 @@
       </c>
       <c r="B170" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45041</v>
+        <v>45746</v>
       </c>
       <c r="C170" s="22">
         <v>103.107586007162</v>
@@ -17637,7 +17629,7 @@
       </c>
       <c r="B171" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45040</v>
+        <v>45745</v>
       </c>
       <c r="C171" s="22">
         <v>105.28944828360405</v>
@@ -17652,7 +17644,7 @@
       </c>
       <c r="B172" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45039</v>
+        <v>45744</v>
       </c>
       <c r="C172" s="22">
         <v>104.8246258734698</v>
@@ -17667,7 +17659,7 @@
       </c>
       <c r="B173" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45038</v>
+        <v>45743</v>
       </c>
       <c r="C173" s="22">
         <v>102.93623677455297</v>
@@ -17682,7 +17674,7 @@
       </c>
       <c r="B174" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45037</v>
+        <v>45742</v>
       </c>
       <c r="C174" s="22">
         <v>100.08008400304462</v>
@@ -17697,7 +17689,7 @@
       </c>
       <c r="B175" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45036</v>
+        <v>45741</v>
       </c>
       <c r="C175" s="22">
         <v>101.32072966519436</v>
@@ -17712,7 +17704,7 @@
       </c>
       <c r="B176" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45035</v>
+        <v>45740</v>
       </c>
       <c r="C176" s="22">
         <v>100.96831242857355</v>
@@ -17727,7 +17719,7 @@
       </c>
       <c r="B177" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45034</v>
+        <v>45739</v>
       </c>
       <c r="C177" s="22">
         <v>102.46475595063515</v>
@@ -17742,7 +17734,7 @@
       </c>
       <c r="B178" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45033</v>
+        <v>45738</v>
       </c>
       <c r="C178" s="22">
         <v>102.4507175899118</v>
@@ -17757,7 +17749,7 @@
       </c>
       <c r="B179" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45032</v>
+        <v>45737</v>
       </c>
       <c r="C179" s="22">
         <v>102.22865793317814</v>
@@ -17772,7 +17764,7 @@
       </c>
       <c r="B180" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45031</v>
+        <v>45736</v>
       </c>
       <c r="C180" s="22">
         <v>102.56110823389508</v>
@@ -17787,7 +17779,7 @@
       </c>
       <c r="B181" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45030</v>
+        <v>45735</v>
       </c>
       <c r="C181" s="22">
         <v>100.74404524290966</v>
@@ -17802,7 +17794,7 @@
       </c>
       <c r="B182" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45734</v>
       </c>
       <c r="C182" s="22">
         <v>97.883069568818584</v>
@@ -17817,7 +17809,7 @@
       </c>
       <c r="B183" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45028</v>
+        <v>45733</v>
       </c>
       <c r="C183" s="22">
         <v>100.81990907558745</v>
@@ -17832,7 +17824,7 @@
       </c>
       <c r="B184" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45027</v>
+        <v>45732</v>
       </c>
       <c r="C184" s="22">
         <v>102.84826600696225</v>
@@ -17847,7 +17839,7 @@
       </c>
       <c r="B185" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45026</v>
+        <v>45731</v>
       </c>
       <c r="C185" s="22">
         <v>103.87448507917991</v>
@@ -17862,7 +17854,7 @@
       </c>
       <c r="B186" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45025</v>
+        <v>45730</v>
       </c>
       <c r="C186" s="22">
         <v>104.82048132306838</v>
@@ -17877,7 +17869,7 @@
       </c>
       <c r="B187" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45024</v>
+        <v>45729</v>
       </c>
       <c r="C187" s="22">
         <v>105.29569850124631</v>
@@ -17892,7 +17884,7 @@
       </c>
       <c r="B188" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45023</v>
+        <v>45728</v>
       </c>
       <c r="C188" s="22">
         <v>104.99626143325976</v>
@@ -17907,7 +17899,7 @@
       </c>
       <c r="B189" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45022</v>
+        <v>45727</v>
       </c>
       <c r="C189" s="22">
         <v>109.01028660432979</v>
@@ -17922,7 +17914,7 @@
       </c>
       <c r="B190" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45021</v>
+        <v>45726</v>
       </c>
       <c r="C190" s="22">
         <v>110.80934375298837</v>
@@ -17937,7 +17929,7 @@
       </c>
       <c r="B191" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45020</v>
+        <v>45725</v>
       </c>
       <c r="C191" s="22">
         <v>113.84685929762534</v>
@@ -17952,7 +17944,7 @@
       </c>
       <c r="B192" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45019</v>
+        <v>45724</v>
       </c>
       <c r="C192" s="22">
         <v>119.98281162592723</v>
@@ -17967,7 +17959,7 @@
       </c>
       <c r="B193" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45018</v>
+        <v>45723</v>
       </c>
       <c r="C193" s="22">
         <v>117.372085117578</v>
@@ -17982,7 +17974,7 @@
       </c>
       <c r="B194" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45722</v>
       </c>
       <c r="C194" s="22">
         <v>113.45510259089546</v>
@@ -17997,7 +17989,7 @@
       </c>
       <c r="B195" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45016</v>
+        <v>45721</v>
       </c>
       <c r="C195" s="22">
         <v>117.35342483473445</v>
@@ -18012,7 +18004,7 @@
       </c>
       <c r="B196" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>45015</v>
+        <v>45720</v>
       </c>
       <c r="C196" s="22">
         <v>115.11042853294566</v>
@@ -18027,7 +18019,7 @@
       </c>
       <c r="B197" s="39">
         <f t="shared" ref="B197:B255" ca="1" si="3">B196-1</f>
-        <v>45014</v>
+        <v>45719</v>
       </c>
       <c r="C197" s="22">
         <v>112.8584859158578</v>
@@ -18042,7 +18034,7 @@
       </c>
       <c r="B198" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45013</v>
+        <v>45718</v>
       </c>
       <c r="C198" s="22">
         <v>112.61502699349046</v>
@@ -18057,7 +18049,7 @@
       </c>
       <c r="B199" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45012</v>
+        <v>45717</v>
       </c>
       <c r="C199" s="22">
         <v>110.23789380077638</v>
@@ -18072,7 +18064,7 @@
       </c>
       <c r="B200" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45011</v>
+        <v>45716</v>
       </c>
       <c r="C200" s="22">
         <v>108.32547943649388</v>
@@ -18087,7 +18079,7 @@
       </c>
       <c r="B201" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45010</v>
+        <v>45715</v>
       </c>
       <c r="C201" s="22">
         <v>108.64627821595693</v>
@@ -18102,7 +18094,7 @@
       </c>
       <c r="B202" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45009</v>
+        <v>45714</v>
       </c>
       <c r="C202" s="22">
         <v>111.68522125356898</v>
@@ -18117,7 +18109,7 @@
       </c>
       <c r="B203" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45008</v>
+        <v>45713</v>
       </c>
       <c r="C203" s="22">
         <v>113.62165293575551</v>
@@ -18132,7 +18124,7 @@
       </c>
       <c r="B204" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45007</v>
+        <v>45712</v>
       </c>
       <c r="C204" s="22">
         <v>114.53469784108515</v>
@@ -18147,7 +18139,7 @@
       </c>
       <c r="B205" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45006</v>
+        <v>45711</v>
       </c>
       <c r="C205" s="22">
         <v>113.45782872516681</v>
@@ -18162,7 +18154,7 @@
       </c>
       <c r="B206" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45005</v>
+        <v>45710</v>
       </c>
       <c r="C206" s="22">
         <v>114.92447868070781</v>
@@ -18177,7 +18169,7 @@
       </c>
       <c r="B207" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45004</v>
+        <v>45709</v>
       </c>
       <c r="C207" s="22">
         <v>114.82763003810716</v>
@@ -18192,7 +18184,7 @@
       </c>
       <c r="B208" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45003</v>
+        <v>45708</v>
       </c>
       <c r="C208" s="22">
         <v>115.04589271054704</v>
@@ -18207,7 +18199,7 @@
       </c>
       <c r="B209" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45002</v>
+        <v>45707</v>
       </c>
       <c r="C209" s="22">
         <v>117.99775380795738</v>
@@ -18222,7 +18214,7 @@
       </c>
       <c r="B210" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45001</v>
+        <v>45706</v>
       </c>
       <c r="C210" s="22">
         <v>118.55659082685617</v>
@@ -18237,7 +18229,7 @@
       </c>
       <c r="B211" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>45000</v>
+        <v>45705</v>
       </c>
       <c r="C211" s="22">
         <v>117.35755433707358</v>
@@ -18252,7 +18244,7 @@
       </c>
       <c r="B212" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44999</v>
+        <v>45704</v>
       </c>
       <c r="C212" s="22">
         <v>117.7657974789655</v>
@@ -18267,7 +18259,7 @@
       </c>
       <c r="B213" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44998</v>
+        <v>45703</v>
       </c>
       <c r="C213" s="22">
         <v>117.03052533478038</v>
@@ -18282,7 +18274,7 @@
       </c>
       <c r="B214" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44997</v>
+        <v>45702</v>
       </c>
       <c r="C214" s="22">
         <v>116.83951541675101</v>
@@ -18297,7 +18289,7 @@
       </c>
       <c r="B215" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44996</v>
+        <v>45701</v>
       </c>
       <c r="C215" s="22">
         <v>116.53506647905539</v>
@@ -18312,7 +18304,7 @@
       </c>
       <c r="B216" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44995</v>
+        <v>45700</v>
       </c>
       <c r="C216" s="22">
         <v>119.25795439328274</v>
@@ -18327,7 +18319,7 @@
       </c>
       <c r="B217" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44994</v>
+        <v>45699</v>
       </c>
       <c r="C217" s="22">
         <v>120.79177978857074</v>
@@ -18342,7 +18334,7 @@
       </c>
       <c r="B218" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44993</v>
+        <v>45698</v>
       </c>
       <c r="C218" s="22">
         <v>122.39246755829906</v>
@@ -18357,7 +18349,7 @@
       </c>
       <c r="B219" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44992</v>
+        <v>45697</v>
       </c>
       <c r="C219" s="22">
         <v>121.23428099437851</v>
@@ -18372,7 +18364,7 @@
       </c>
       <c r="B220" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44991</v>
+        <v>45696</v>
       </c>
       <c r="C220" s="22">
         <v>121.76378700329504</v>
@@ -18387,7 +18379,7 @@
       </c>
       <c r="B221" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44990</v>
+        <v>45695</v>
       </c>
       <c r="C221" s="22">
         <v>117.70431363451814</v>
@@ -18402,7 +18394,7 @@
       </c>
       <c r="B222" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44989</v>
+        <v>45694</v>
       </c>
       <c r="C222" s="22">
         <v>115.44394340806134</v>
@@ -18417,7 +18409,7 @@
       </c>
       <c r="B223" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44988</v>
+        <v>45693</v>
       </c>
       <c r="C223" s="22">
         <v>115.34370005477219</v>
@@ -18432,7 +18424,7 @@
       </c>
       <c r="B224" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44987</v>
+        <v>45692</v>
       </c>
       <c r="C224" s="22">
         <v>116.37210737852146</v>
@@ -18447,7 +18439,7 @@
       </c>
       <c r="B225" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44986</v>
+        <v>45691</v>
       </c>
       <c r="C225" s="22">
         <v>113.25297972834171</v>
@@ -18462,7 +18454,7 @@
       </c>
       <c r="B226" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44985</v>
+        <v>45690</v>
       </c>
       <c r="C226" s="22">
         <v>112.33779697002602</v>
@@ -18477,7 +18469,7 @@
       </c>
       <c r="B227" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44984</v>
+        <v>45689</v>
       </c>
       <c r="C227" s="22">
         <v>110.19846447939598</v>
@@ -18492,7 +18484,7 @@
       </c>
       <c r="B228" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44983</v>
+        <v>45688</v>
       </c>
       <c r="C228" s="22">
         <v>104.258148195646</v>
@@ -18507,7 +18499,7 @@
       </c>
       <c r="B229" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44982</v>
+        <v>45687</v>
       </c>
       <c r="C229" s="22">
         <v>106.48049880483379</v>
@@ -18522,7 +18514,7 @@
       </c>
       <c r="B230" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44981</v>
+        <v>45686</v>
       </c>
       <c r="C230" s="22">
         <v>104.52041119718135</v>
@@ -18537,7 +18529,7 @@
       </c>
       <c r="B231" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44980</v>
+        <v>45685</v>
       </c>
       <c r="C231" s="22">
         <v>108.01226348634449</v>
@@ -18552,7 +18544,7 @@
       </c>
       <c r="B232" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44979</v>
+        <v>45684</v>
       </c>
       <c r="C232" s="22">
         <v>106.83695700858036</v>
@@ -18567,7 +18559,7 @@
       </c>
       <c r="B233" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44978</v>
+        <v>45683</v>
       </c>
       <c r="C233" s="22">
         <v>104.79973497289768</v>
@@ -18582,7 +18574,7 @@
       </c>
       <c r="B234" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44977</v>
+        <v>45682</v>
       </c>
       <c r="C234" s="22">
         <v>105.01249185473689</v>
@@ -18597,7 +18589,7 @@
       </c>
       <c r="B235" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44976</v>
+        <v>45681</v>
       </c>
       <c r="C235" s="22">
         <v>107.01159686814542</v>
@@ -18612,7 +18604,7 @@
       </c>
       <c r="B236" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44975</v>
+        <v>45680</v>
       </c>
       <c r="C236" s="22">
         <v>106.45947827288299</v>
@@ -18627,7 +18619,7 @@
       </c>
       <c r="B237" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44974</v>
+        <v>45679</v>
       </c>
       <c r="C237" s="22">
         <v>105.07869025850248</v>
@@ -18642,7 +18634,7 @@
       </c>
       <c r="B238" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44973</v>
+        <v>45678</v>
       </c>
       <c r="C238" s="22">
         <v>110.58800622711122</v>
@@ -18657,7 +18649,7 @@
       </c>
       <c r="B239" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44972</v>
+        <v>45677</v>
       </c>
       <c r="C239" s="22">
         <v>109.98144010024993</v>
@@ -18672,7 +18664,7 @@
       </c>
       <c r="B240" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44971</v>
+        <v>45676</v>
       </c>
       <c r="C240" s="22">
         <v>109.56104370521044</v>
@@ -18687,7 +18679,7 @@
       </c>
       <c r="B241" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44970</v>
+        <v>45675</v>
       </c>
       <c r="C241" s="22">
         <v>111.14127659556121</v>
@@ -18702,7 +18694,7 @@
       </c>
       <c r="B242" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44969</v>
+        <v>45674</v>
       </c>
       <c r="C242" s="22">
         <v>111.71093082240297</v>
@@ -18717,7 +18709,7 @@
       </c>
       <c r="B243" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44968</v>
+        <v>45673</v>
       </c>
       <c r="C243" s="22">
         <v>113.17973871466013</v>
@@ -18732,7 +18724,7 @@
       </c>
       <c r="B244" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44967</v>
+        <v>45672</v>
       </c>
       <c r="C244" s="22">
         <v>112.1732488747186</v>
@@ -18747,7 +18739,7 @@
       </c>
       <c r="B245" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44966</v>
+        <v>45671</v>
       </c>
       <c r="C245" s="22">
         <v>114.97088431678306</v>
@@ -18762,7 +18754,7 @@
       </c>
       <c r="B246" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44965</v>
+        <v>45670</v>
       </c>
       <c r="C246" s="22">
         <v>111.93635607173471</v>
@@ -18777,7 +18769,7 @@
       </c>
       <c r="B247" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44964</v>
+        <v>45669</v>
       </c>
       <c r="C247" s="22">
         <v>114.83062582953823</v>
@@ -18792,7 +18784,7 @@
       </c>
       <c r="B248" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44963</v>
+        <v>45668</v>
       </c>
       <c r="C248" s="22">
         <v>113.44790939986291</v>
@@ -18807,7 +18799,7 @@
       </c>
       <c r="B249" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44962</v>
+        <v>45667</v>
       </c>
       <c r="C249" s="22">
         <v>116.06130290649698</v>
@@ -18822,7 +18814,7 @@
       </c>
       <c r="B250" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44961</v>
+        <v>45666</v>
       </c>
       <c r="C250" s="22">
         <v>119.44352132280605</v>
@@ -18837,7 +18829,7 @@
       </c>
       <c r="B251" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44960</v>
+        <v>45665</v>
       </c>
       <c r="C251" s="22">
         <v>122.42616100264979</v>
@@ -18852,7 +18844,7 @@
       </c>
       <c r="B252" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44959</v>
+        <v>45664</v>
       </c>
       <c r="C252" s="22">
         <v>122.68065357953628</v>
@@ -18867,7 +18859,7 @@
       </c>
       <c r="B253" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44958</v>
+        <v>45663</v>
       </c>
       <c r="C253" s="22">
         <v>123.62804450268113</v>
@@ -18882,7 +18874,7 @@
       </c>
       <c r="B254" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44957</v>
+        <v>45662</v>
       </c>
       <c r="C254" s="22">
         <v>123.0824963690756</v>
@@ -18897,7 +18889,7 @@
       </c>
       <c r="B255" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>44956</v>
+        <v>45661</v>
       </c>
       <c r="C255" s="22">
         <v>123.45</v>
@@ -19347,7 +19339,7 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>-0.88452004652870431</v>
+        <v>-0.5055610016355383</v>
       </c>
     </row>
   </sheetData>
@@ -19393,17 +19385,17 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
@@ -19459,7 +19451,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -19474,7 +19466,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -19937,7 +19929,7 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20061,9 +20053,7 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20099,7 +20089,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -20159,7 +20149,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -20243,9 +20233,7 @@
   </sheetPr>
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20310,7 +20298,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C41" ca="1" si="0">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>72.956068381055161</v>
+        <v>67.17833357673922</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>173</v>
@@ -20344,7 +20332,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.59678156571772</v>
+        <v>63.609292854859127</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>172</v>
@@ -20361,11 +20349,11 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ref="K11:K30" ca="1" si="4">J11-J10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20378,7 +20366,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.356029667290628</v>
+        <v>72.070321943603588</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>171</v>
@@ -20396,11 +20384,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20413,7 +20401,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.273358680098156</v>
+        <v>68.626847688966791</v>
       </c>
       <c r="H13" s="1">
         <v>0.15</v>
@@ -20424,11 +20412,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20441,7 +20429,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.365804839680237</v>
+        <v>68.136523565745591</v>
       </c>
       <c r="H14" s="1">
         <v>0.2</v>
@@ -20452,7 +20440,7 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -20469,7 +20457,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.901919155871738</v>
+        <v>71.461760466813004</v>
       </c>
       <c r="H15" s="1">
         <v>0.25</v>
@@ -20480,11 +20468,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20497,7 +20485,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.621986574034366</v>
+        <v>67.852461259068647</v>
       </c>
       <c r="H16" s="1">
         <v>0.3</v>
@@ -20508,11 +20496,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20525,7 +20513,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.943452225558133</v>
+        <v>65.585531803702608</v>
       </c>
       <c r="H17" s="1">
         <v>0.35</v>
@@ -20536,11 +20524,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L17" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20553,7 +20541,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.493651765952279</v>
+        <v>67.983681866736944</v>
       </c>
       <c r="H18" s="1">
         <v>0.4</v>
@@ -20564,11 +20552,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L18" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20581,7 +20569,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.735550070656075</v>
+        <v>66.467348952222764</v>
       </c>
       <c r="H19" s="1">
         <v>0.45</v>
@@ -20592,11 +20580,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L19" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20616,7 +20604,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.521154715132838</v>
+        <v>66.290109801604657</v>
       </c>
       <c r="H20" s="1">
         <v>0.5</v>
@@ -20631,7 +20619,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L20" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20642,7 +20630,7 @@
       </c>
       <c r="O20" s="1">
         <f ca="1">AVERAGE(Heights)</f>
-        <v>67.777225470032988</v>
+        <v>67.854668419325435</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -20651,7 +20639,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>68.440931476325787</v>
+        <v>70.779784335129776</v>
       </c>
       <c r="H21" s="1">
         <v>0.55000000000000004</v>
@@ -20662,15 +20650,15 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" s="23">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>168</v>
@@ -20685,7 +20673,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>64.860800822659911</v>
+        <v>67.940498010595263</v>
       </c>
       <c r="H22" s="1">
         <v>0.6</v>
@@ -20696,11 +20684,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L22" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20713,7 +20701,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63.497846559585426</v>
+        <v>70.503412327318031</v>
       </c>
       <c r="H23" s="1">
         <v>0.65</v>
@@ -20724,11 +20712,11 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L23" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20747,7 +20735,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.27589857210917</v>
+        <v>66.564704031046972</v>
       </c>
       <c r="H24" s="1">
         <v>0.7</v>
@@ -20758,11 +20746,11 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20773,7 +20761,7 @@
       </c>
       <c r="O24" s="1">
         <f ca="1">xbar-mu</f>
-        <v>-2.2227745299670119</v>
+        <v>-2.145331580674565</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
@@ -20782,7 +20770,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.896888147938085</v>
+        <v>68.943587620418882</v>
       </c>
       <c r="H25" s="1">
         <v>0.75</v>
@@ -20793,11 +20781,11 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20808,7 +20796,7 @@
       </c>
       <c r="O25" s="1">
         <f ca="1">(xbar-mu)/SD</f>
-        <v>-1.1113872649835059</v>
+        <v>-1.0726657903372825</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -20817,7 +20805,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.694005740538529</v>
+        <v>68.968758449686405</v>
       </c>
       <c r="H26" s="1">
         <v>0.8</v>
@@ -20832,7 +20820,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="23" t="str">
         <f t="shared" si="3"/>
@@ -20843,7 +20831,7 @@
       </c>
       <c r="O26" s="1">
         <f ca="1">_xlfn.T.DIST(O25,n-1,1)</f>
-        <v>0.13454674538202366</v>
+        <v>0.14301444371039382</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -20852,7 +20840,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>67.234384543405412</v>
+        <v>67.122220431483015</v>
       </c>
       <c r="H27" s="1">
         <v>0.85</v>
@@ -20880,7 +20868,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.409912975895736</v>
+        <v>69.306085696200213</v>
       </c>
       <c r="H28" s="1">
         <v>0.9</v>
@@ -20915,7 +20903,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.910576859558361</v>
+        <v>67.615482195176881</v>
       </c>
       <c r="H29" s="1">
         <v>0.95</v>
@@ -20941,7 +20929,7 @@
       </c>
       <c r="O29" s="1">
         <f ca="1">(xbar-mu)/SD_xbar</f>
-        <v>-11.113872649835059</v>
+        <v>-10.726657903372825</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
@@ -20950,7 +20938,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.864887962909123</v>
+        <v>69.134516911628353</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -20976,7 +20964,7 @@
       </c>
       <c r="O30" s="1">
         <f ca="1">_xlfn.NORM.S.DIST(xbar_mu__sigma_average,1)</f>
-        <v>5.3699258716432543E-29</v>
+        <v>3.8153111878423543E-27</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
@@ -20985,7 +20973,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.595382225945642</v>
+        <v>64.765677213664091</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
@@ -20994,7 +20982,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.470092771523994</v>
+        <v>70.546643818275371</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -21003,7 +20991,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.610015106548545</v>
+        <v>65.305224556772075</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -21012,7 +21000,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.747205115854285</v>
+        <v>70.864283948708362</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -21021,7 +21009,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.844205962959336</v>
+        <v>69.033415067816222</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -21030,7 +21018,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65.442982458131382</v>
+        <v>70.070514202546534</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -21039,7 +21027,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.145659564769886</v>
+        <v>68.049005248824699</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
@@ -21048,7 +21036,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>69.874717016526688</v>
+        <v>68.33810678820447</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -21057,7 +21045,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.733703991837203</v>
+        <v>68.558412831711891</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -21066,7 +21054,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70.522583283087556</v>
+        <v>67.349390317097829</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
@@ -21075,7 +21063,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.652879192715815</v>
+        <v>67.068618507062055</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -21084,7 +21072,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ref="C42:C73" ca="1" si="5">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>67.480024208419465</v>
+        <v>63.858780817922295</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
@@ -21093,7 +21081,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>68.441602277340849</v>
+        <v>66.95007189860911</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
@@ -21102,7 +21090,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.840088701679463</v>
+        <v>67.274638737854644</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
@@ -21111,7 +21099,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.850290755824645</v>
+        <v>70.786514873633067</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
@@ -21120,7 +21108,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.475028411389772</v>
+        <v>71.489528692919805</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
@@ -21129,7 +21117,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.708080183671427</v>
+        <v>65.686751579465138</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
@@ -21138,7 +21126,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.471700757902411</v>
+        <v>69.748972805828913</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
@@ -21147,7 +21135,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.501629336918313</v>
+        <v>66.900260279743918</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -21156,7 +21144,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.950451279253627</v>
+        <v>68.944476394365168</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
@@ -21165,7 +21153,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>68.553622181505872</v>
+        <v>67.816638881819429</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
@@ -21174,7 +21162,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.637497785499406</v>
+        <v>67.051684331539064</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
@@ -21183,7 +21171,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.210559587428293</v>
+        <v>67.658725043518061</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
@@ -21192,7 +21180,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.794331793288521</v>
+        <v>68.322252453749641</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
@@ -21201,7 +21189,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>70.163252711906708</v>
+        <v>65.904747239137095</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
@@ -21210,7 +21198,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.341049522000603</v>
+        <v>67.924820779658887</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
@@ -21219,7 +21207,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.783919426017505</v>
+        <v>66.826576145193584</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
@@ -21228,7 +21216,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.353784750026762</v>
+        <v>70.724182832169859</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
@@ -21237,7 +21225,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.583337392387392</v>
+        <v>68.477474508662795</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
@@ -21246,7 +21234,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>70.832339430711016</v>
+        <v>68.295509904529808</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
@@ -21255,7 +21243,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.248155815241915</v>
+        <v>64.054718017384772</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
@@ -21264,7 +21252,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>68.081268056528202</v>
+        <v>68.581314752058901</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
@@ -21273,7 +21261,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>69.642132238163128</v>
+        <v>69.020977096559292</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
@@ -21282,7 +21270,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>64.951650675971479</v>
+        <v>64.956353086958217</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
@@ -21291,7 +21279,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.661534413626214</v>
+        <v>67.796290846894877</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
@@ -21300,7 +21288,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>65.493932661455176</v>
+        <v>68.327179579512276</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
@@ -21309,7 +21297,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>65.978438839378015</v>
+        <v>66.511911565093826</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
@@ -21318,7 +21306,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>66.349918253767768</v>
+        <v>68.723497116804865</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
@@ -21327,7 +21315,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>64.310448428737047</v>
+        <v>68.455784227589575</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
@@ -21336,7 +21324,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67.656024284506202</v>
+        <v>68.030499880368055</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
@@ -21345,7 +21333,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>71.054638608659403</v>
+        <v>66.540117439252725</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
@@ -21354,7 +21342,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>65.664599566462243</v>
+        <v>65.980966861803992</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
@@ -21363,7 +21351,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>68.194117072255096</v>
+        <v>68.482349907322345</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
@@ -21372,7 +21360,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" ref="C74:C109" ca="1" si="6">_xlfn.NORM.INV(RAND(),68,2)</f>
-        <v>67.733483365688699</v>
+        <v>70.505750722699389</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
@@ -21381,7 +21369,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.033109217651656</v>
+        <v>66.142239941058975</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
@@ -21390,7 +21378,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70.2427509404598</v>
+        <v>67.537655045052048</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
@@ -21399,7 +21387,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.455604385417615</v>
+        <v>69.137706975984557</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
@@ -21408,7 +21396,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64.83564816039258</v>
+        <v>66.720707737967572</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
@@ -21417,7 +21405,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.791071645626815</v>
+        <v>69.050832846015936</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
@@ -21426,7 +21414,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.110120586051167</v>
+        <v>65.330075858497224</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
@@ -21435,7 +21423,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.379716270083151</v>
+        <v>70.399517425063436</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
@@ -21444,7 +21432,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.573520179781241</v>
+        <v>68.541262171540723</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
@@ -21453,7 +21441,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70.278169880874302</v>
+        <v>68.547686327666227</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
@@ -21462,7 +21450,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.684139174310332</v>
+        <v>67.374357528003941</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
@@ -21471,7 +21459,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70.762679121516499</v>
+        <v>66.840794729023997</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
@@ -21480,7 +21468,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.595038260647641</v>
+        <v>68.298804725115417</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
@@ -21489,7 +21477,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70.370974154250987</v>
+        <v>69.549923451104945</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
@@ -21498,7 +21486,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.369956614671111</v>
+        <v>69.838512083906636</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
@@ -21507,7 +21495,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.957026309629299</v>
+        <v>69.423771688062033</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
@@ -21516,7 +21504,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.575777111768559</v>
+        <v>65.536310413243797</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
@@ -21525,7 +21513,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.915258001176056</v>
+        <v>71.829656779529088</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
@@ -21534,7 +21522,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.527658865626336</v>
+        <v>69.501571918587743</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
@@ -21543,7 +21531,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.817504809263653</v>
+        <v>69.076833908564168</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
@@ -21552,7 +21540,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.712053780299954</v>
+        <v>68.048045476036265</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
@@ -21561,7 +21549,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.656898270448764</v>
+        <v>71.238936203713436</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
@@ -21570,7 +21558,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.925524663318996</v>
+        <v>68.709176159687729</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
@@ -21579,7 +21567,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>70.391402637219869</v>
+        <v>63.224328602763151</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
@@ -21588,7 +21576,7 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.972632801511153</v>
+        <v>67.064206555115632</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
@@ -21597,7 +21585,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.456563544490962</v>
+        <v>66.927384214504443</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
@@ -21606,7 +21594,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>68.173289048556924</v>
+        <v>67.688144186359111</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
@@ -21615,7 +21603,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.812262386011795</v>
+        <v>64.682780565338533</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
@@ -21624,7 +21612,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.415654865894538</v>
+        <v>66.557452913491801</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
@@ -21633,7 +21621,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>65.929775264837261</v>
+        <v>65.593598833412358</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
@@ -21642,7 +21630,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.283001223492107</v>
+        <v>67.708604301060106</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
@@ -21651,7 +21639,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>67.354802063100024</v>
+        <v>67.247958840259244</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
@@ -21660,7 +21648,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64.201907181742541</v>
+        <v>62.236226959543295</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
@@ -21669,7 +21657,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66.822523170328452</v>
+        <v>68.624833853499936</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
@@ -21678,7 +21666,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.535602298370648</v>
+        <v>66.976727157218377</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
@@ -21687,7 +21675,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69.318679348991054</v>
+        <v>65.559339966497319</v>
       </c>
     </row>
   </sheetData>
